--- a/Doc/AnexoAlta_VERIFACTU.xlsx
+++ b/Doc/AnexoAlta_VERIFACTU.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E27A02-69C5-4777-BCD2-D009BBEFCE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DR Alta" sheetId="1" r:id="rId1"/>
@@ -1038,7 +1039,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2291,7 +2292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2311,10 +2312,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2352,11 +2353,7 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2364,237 +2361,232 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2613,261 +2605,327 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2889,19 +2947,19 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2913,138 +2971,75 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3068,12 +3063,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3360,1885 +3349,1982 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C12"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="31" customWidth="1"/>
-    <col min="3" max="4" width="23.7109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="25" style="31" customWidth="1"/>
-    <col min="6" max="6" width="8" style="31" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="49" style="31" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="31" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="38.42578125" style="31" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="10.140625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="28" customWidth="1"/>
+    <col min="3" max="4" width="23.7109375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="25" style="28" customWidth="1"/>
+    <col min="6" max="6" width="8" style="28" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="28" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="28" customWidth="1"/>
+    <col min="11" max="11" width="49" style="28" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="28" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="28" customWidth="1"/>
+    <col min="14" max="14" width="38.42578125" style="28" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="233" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="204" t="s">
+      <c r="H1" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204" t="s">
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="L1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="230"/>
+      <c r="M1" s="206"/>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="217"/>
-      <c r="B2" s="115" t="s">
+      <c r="A2" s="234"/>
+      <c r="B2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="E2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="115" t="s">
+      <c r="G2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="116" t="s">
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
+      <c r="L2" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="230"/>
+      <c r="M2" s="206"/>
     </row>
     <row r="3" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="218"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="118" t="s">
+      <c r="A3" s="235"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="230"/>
+      <c r="M3" s="206"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="207" t="s">
+      <c r="A4" s="224" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="226" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="211"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="213" t="s">
+      <c r="C4" s="228"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
+      <c r="I4" s="228"/>
+      <c r="J4" s="228"/>
+      <c r="K4" s="230" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="231" t="s">
+      <c r="L4" s="207" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="208"/>
-      <c r="B5" s="210"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
-      <c r="F5" s="212"/>
-      <c r="G5" s="212"/>
-      <c r="H5" s="212"/>
-      <c r="I5" s="212"/>
-      <c r="J5" s="212"/>
-      <c r="K5" s="214"/>
-      <c r="L5" s="232"/>
+      <c r="A5" s="225"/>
+      <c r="B5" s="227"/>
+      <c r="C5" s="229"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="229"/>
+      <c r="I5" s="229"/>
+      <c r="J5" s="229"/>
+      <c r="K5" s="231"/>
+      <c r="L5" s="208"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="208"/>
-      <c r="B6" s="215" t="s">
+      <c r="A6" s="225"/>
+      <c r="B6" s="232" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="121" t="s">
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="164" t="s">
+      <c r="L6" s="159" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="208"/>
-      <c r="B7" s="215"/>
-      <c r="C7" s="123" t="s">
+      <c r="A7" s="225"/>
+      <c r="B7" s="232"/>
+      <c r="C7" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="33" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="L7" s="162" t="s">
+      <c r="L7" s="157" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="208"/>
-      <c r="B8" s="215"/>
-      <c r="C8" s="125" t="s">
+      <c r="A8" s="225"/>
+      <c r="B8" s="232"/>
+      <c r="C8" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="33" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="L8" s="162" t="s">
+      <c r="L8" s="157" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="208"/>
-      <c r="B9" s="215"/>
-      <c r="C9" s="126" t="s">
+      <c r="A9" s="225"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="127" t="s">
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="L9" s="163" t="s">
+      <c r="L9" s="158" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="245" t="s">
+      <c r="A10" s="179" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="219" t="s">
+      <c r="B10" s="236" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="242" t="s">
+      <c r="C10" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="149"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="149" t="s">
+      <c r="E10" s="144"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="L10" s="38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="245"/>
-      <c r="B11" s="220"/>
-      <c r="C11" s="243"/>
-      <c r="D11" s="194" t="s">
+      <c r="A11" s="179"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="186"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="225" t="s">
+      <c r="E11" s="237"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="161" t="s">
+      <c r="L11" s="156" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="245"/>
-      <c r="B12" s="220"/>
-      <c r="C12" s="244"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="185"/>
-      <c r="J12" s="185"/>
-      <c r="K12" s="226"/>
-      <c r="L12" s="46" t="s">
+      <c r="A12" s="179"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="250"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="214"/>
+      <c r="L12" s="43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="245"/>
-      <c r="B13" s="220"/>
-      <c r="C13" s="220" t="s">
+      <c r="A13" s="179"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="131" t="s">
+      <c r="D13" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="154" t="s">
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="149" t="s">
         <v>271</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="245"/>
-      <c r="B14" s="220"/>
-      <c r="C14" s="220"/>
-      <c r="D14" s="37" t="s">
+      <c r="A14" s="179"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="198"/>
+      <c r="D14" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="38" t="s">
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="40" t="s">
+      <c r="L14" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="245"/>
-      <c r="B15" s="220"/>
-      <c r="C15" s="257"/>
-      <c r="D15" s="37" t="s">
+      <c r="A15" s="179"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="38" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="40" t="s">
+      <c r="L15" s="37" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="245"/>
-      <c r="B16" s="220"/>
-      <c r="C16" s="177" t="s">
+      <c r="A16" s="179"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="192"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="221"/>
-      <c r="J16" s="221"/>
-      <c r="K16" s="173" t="s">
+      <c r="D16" s="196"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="169" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="167" t="s">
+      <c r="L16" s="165" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="245"/>
-      <c r="B17" s="220"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="256"/>
-      <c r="E17" s="225"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="222"/>
-      <c r="J17" s="222"/>
-      <c r="K17" s="225"/>
-      <c r="L17" s="261"/>
+      <c r="A17" s="179"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="237"/>
+      <c r="G17" s="237"/>
+      <c r="H17" s="237"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="178"/>
+      <c r="L17" s="166"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="245"/>
-      <c r="B18" s="220"/>
-      <c r="C18" s="223" t="s">
+      <c r="A18" s="179"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="238" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="229"/>
-      <c r="E18" s="229"/>
-      <c r="F18" s="241"/>
-      <c r="G18" s="241"/>
-      <c r="H18" s="241"/>
-      <c r="I18" s="227"/>
-      <c r="J18" s="227"/>
-      <c r="K18" s="229" t="s">
+      <c r="D18" s="219"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="219" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="41" t="s">
+      <c r="L18" s="38" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="245"/>
-      <c r="B19" s="220"/>
+      <c r="A19" s="179"/>
+      <c r="B19" s="198"/>
       <c r="C19" s="191"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="228"/>
-      <c r="J19" s="228"/>
-      <c r="K19" s="174"/>
-      <c r="L19" s="156"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="151"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="245"/>
-      <c r="B20" s="220"/>
-      <c r="C20" s="189" t="s">
+      <c r="A20" s="179"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="192" t="s">
+      <c r="D20" s="196" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="145" t="s">
+      <c r="E20" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="135" t="s">
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="132" t="s">
+      <c r="L20" s="127" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="245"/>
-      <c r="B21" s="220"/>
+      <c r="A21" s="179"/>
+      <c r="B21" s="198"/>
       <c r="C21" s="191"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="146" t="s">
+      <c r="D21" s="203"/>
+      <c r="E21" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="148"/>
-      <c r="K21" s="136" t="s">
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="147" t="s">
+      <c r="L21" s="142" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="245"/>
-      <c r="B22" s="220"/>
-      <c r="C22" s="189" t="s">
+      <c r="A22" s="179"/>
+      <c r="B22" s="198"/>
+      <c r="C22" s="190" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="192" t="s">
+      <c r="D22" s="196" t="s">
         <v>202</v>
       </c>
-      <c r="E22" s="145" t="s">
+      <c r="E22" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="135" t="s">
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="132" t="s">
+      <c r="L22" s="127" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="245"/>
-      <c r="B23" s="220"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="198"/>
       <c r="C23" s="191"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="146" t="s">
+      <c r="D23" s="203"/>
+      <c r="E23" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="148"/>
-      <c r="K23" s="136" t="s">
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="147" t="s">
+      <c r="L23" s="142" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="245"/>
-      <c r="B24" s="220"/>
-      <c r="C24" s="189" t="s">
+      <c r="A24" s="179"/>
+      <c r="B24" s="198"/>
+      <c r="C24" s="190" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="145" t="s">
+      <c r="D24" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="135"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="135" t="s">
+      <c r="E24" s="130"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="130" t="s">
         <v>191</v>
       </c>
-      <c r="L24" s="132" t="s">
+      <c r="L24" s="127" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="245"/>
-      <c r="B25" s="220"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="160" t="s">
+      <c r="A25" s="179"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="205"/>
+      <c r="D25" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="134"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="134" t="s">
+      <c r="E25" s="129"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="129" t="s">
         <v>192</v>
       </c>
-      <c r="L25" s="133" t="s">
+      <c r="L25" s="128" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="245"/>
-      <c r="B26" s="220"/>
+      <c r="A26" s="179"/>
+      <c r="B26" s="198"/>
       <c r="C26" s="191"/>
-      <c r="D26" s="136" t="s">
+      <c r="D26" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="136"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="148"/>
-      <c r="K26" s="136" t="s">
+      <c r="E26" s="131"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="131" t="s">
         <v>193</v>
       </c>
-      <c r="L26" s="147" t="s">
+      <c r="L26" s="142" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="245"/>
-      <c r="B27" s="220"/>
-      <c r="C27" s="42" t="s">
+      <c r="A27" s="179"/>
+      <c r="B27" s="198"/>
+      <c r="C27" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="154" t="s">
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="36" t="s">
+      <c r="L27" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="245"/>
-      <c r="B28" s="220"/>
-      <c r="C28" s="189" t="s">
+      <c r="A28" s="179"/>
+      <c r="B28" s="198"/>
+      <c r="C28" s="190" t="s">
         <v>176</v>
       </c>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="221"/>
-      <c r="J28" s="221"/>
-      <c r="K28" s="173" t="s">
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="167" t="s">
+      <c r="L28" s="165" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="245"/>
-      <c r="B29" s="220"/>
+      <c r="A29" s="179"/>
+      <c r="B29" s="198"/>
       <c r="C29" s="191"/>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="228"/>
-      <c r="J29" s="228"/>
-      <c r="K29" s="174"/>
-      <c r="L29" s="168"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="170"/>
+      <c r="L29" s="167"/>
     </row>
     <row r="30" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="245"/>
-      <c r="B30" s="220"/>
-      <c r="C30" s="44" t="s">
+      <c r="A30" s="179"/>
+      <c r="B30" s="198"/>
+      <c r="C30" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="154" t="s">
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="149" t="s">
         <v>194</v>
       </c>
-      <c r="L30" s="36" t="s">
+      <c r="L30" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="245"/>
-      <c r="B31" s="220"/>
-      <c r="C31" s="131" t="s">
+      <c r="A31" s="179"/>
+      <c r="B31" s="198"/>
+      <c r="C31" s="126" t="s">
         <v>260</v>
       </c>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="154" t="s">
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="36" t="s">
+      <c r="L31" s="33" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="245"/>
-      <c r="B32" s="220"/>
-      <c r="C32" s="42" t="s">
+      <c r="A32" s="179"/>
+      <c r="B32" s="198"/>
+      <c r="C32" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="154" t="s">
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="149" t="s">
         <v>93</v>
       </c>
-      <c r="L32" s="36" t="s">
+      <c r="L32" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="245"/>
-      <c r="B33" s="220"/>
-      <c r="C33" s="189" t="s">
+      <c r="A33" s="179"/>
+      <c r="B33" s="198"/>
+      <c r="C33" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="221"/>
-      <c r="J33" s="221"/>
-      <c r="K33" s="173" t="s">
+      <c r="D33" s="169"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="169" t="s">
         <v>95</v>
       </c>
-      <c r="L33" s="239" t="s">
+      <c r="L33" s="216" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="245"/>
-      <c r="B34" s="220"/>
-      <c r="C34" s="190"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="169"/>
-      <c r="H34" s="169"/>
-      <c r="I34" s="238"/>
-      <c r="J34" s="238"/>
-      <c r="K34" s="172"/>
-      <c r="L34" s="203"/>
+      <c r="A34" s="179"/>
+      <c r="B34" s="198"/>
+      <c r="C34" s="205"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="163"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="162"/>
+      <c r="I34" s="215"/>
+      <c r="J34" s="215"/>
+      <c r="K34" s="163"/>
+      <c r="L34" s="217"/>
     </row>
     <row r="35" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="245"/>
-      <c r="B35" s="220"/>
+      <c r="A35" s="179"/>
+      <c r="B35" s="198"/>
       <c r="C35" s="191"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="185"/>
-      <c r="G35" s="185"/>
-      <c r="H35" s="185"/>
-      <c r="I35" s="228"/>
-      <c r="J35" s="228"/>
-      <c r="K35" s="174"/>
-      <c r="L35" s="240"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="175"/>
+      <c r="K35" s="170"/>
+      <c r="L35" s="218"/>
     </row>
     <row r="36" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="245"/>
-      <c r="B36" s="220"/>
-      <c r="C36" s="42" t="s">
+      <c r="A36" s="179"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="154"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="154" t="s">
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="149" t="s">
         <v>241</v>
       </c>
-      <c r="L36" s="46" t="s">
+      <c r="L36" s="43" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="245"/>
-      <c r="B37" s="220"/>
-      <c r="C37" s="258" t="s">
+      <c r="A37" s="179"/>
+      <c r="B37" s="198"/>
+      <c r="C37" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="177"/>
-      <c r="E37" s="192"/>
-      <c r="F37" s="181"/>
-      <c r="G37" s="181"/>
-      <c r="H37" s="181"/>
-      <c r="I37" s="181"/>
-      <c r="J37" s="181"/>
-      <c r="K37" s="173" t="s">
+      <c r="D37" s="194"/>
+      <c r="E37" s="196"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="171"/>
+      <c r="K37" s="169" t="s">
         <v>195</v>
       </c>
-      <c r="L37" s="167" t="s">
+      <c r="L37" s="165" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="245"/>
-      <c r="B38" s="220"/>
-      <c r="C38" s="258"/>
-      <c r="D38" s="178"/>
-      <c r="E38" s="260"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="169"/>
-      <c r="I38" s="169"/>
-      <c r="J38" s="169"/>
-      <c r="K38" s="172"/>
-      <c r="L38" s="170"/>
+      <c r="A38" s="179"/>
+      <c r="B38" s="198"/>
+      <c r="C38" s="200"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="168"/>
+      <c r="F38" s="162"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="162"/>
+      <c r="J38" s="162"/>
+      <c r="K38" s="163"/>
+      <c r="L38" s="164"/>
     </row>
     <row r="39" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="245"/>
-      <c r="B39" s="220"/>
-      <c r="C39" s="258"/>
-      <c r="D39" s="259"/>
-      <c r="E39" s="193"/>
-      <c r="F39" s="185"/>
-      <c r="G39" s="185"/>
-      <c r="H39" s="185"/>
-      <c r="I39" s="185"/>
-      <c r="J39" s="185"/>
-      <c r="K39" s="174"/>
-      <c r="L39" s="168"/>
+      <c r="A39" s="179"/>
+      <c r="B39" s="198"/>
+      <c r="C39" s="200"/>
+      <c r="D39" s="202"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="172"/>
+      <c r="K39" s="170"/>
+      <c r="L39" s="167"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="245"/>
-      <c r="B40" s="220"/>
-      <c r="C40" s="233" t="s">
+      <c r="A40" s="179"/>
+      <c r="B40" s="198"/>
+      <c r="C40" s="209" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="235"/>
-      <c r="E40" s="237"/>
-      <c r="F40" s="181"/>
-      <c r="G40" s="181"/>
-      <c r="H40" s="181"/>
-      <c r="I40" s="175"/>
-      <c r="J40" s="181"/>
-      <c r="K40" s="173" t="s">
+      <c r="D40" s="211"/>
+      <c r="E40" s="213"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="256"/>
+      <c r="J40" s="171"/>
+      <c r="K40" s="169" t="s">
         <v>242</v>
       </c>
-      <c r="L40" s="132" t="s">
+      <c r="L40" s="127" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="245"/>
-      <c r="B41" s="220"/>
-      <c r="C41" s="234"/>
-      <c r="D41" s="236"/>
-      <c r="E41" s="226"/>
-      <c r="F41" s="185"/>
-      <c r="G41" s="185"/>
-      <c r="H41" s="185"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="185"/>
-      <c r="K41" s="174"/>
-      <c r="L41" s="156" t="s">
+      <c r="A41" s="179"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="210"/>
+      <c r="D41" s="212"/>
+      <c r="E41" s="214"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="249"/>
+      <c r="J41" s="172"/>
+      <c r="K41" s="170"/>
+      <c r="L41" s="151" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="245"/>
-      <c r="B42" s="220"/>
-      <c r="C42" s="196" t="s">
+      <c r="A42" s="179"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="243" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="138" t="s">
+      <c r="D42" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="135"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="141"/>
-      <c r="H42" s="141"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="135" t="s">
+      <c r="E42" s="130"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="146"/>
+      <c r="K42" s="130" t="s">
         <v>244</v>
       </c>
-      <c r="L42" s="132" t="s">
+      <c r="L42" s="127" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="245"/>
-      <c r="B43" s="220"/>
-      <c r="C43" s="197"/>
-      <c r="D43" s="178" t="s">
+      <c r="A43" s="179"/>
+      <c r="B43" s="198"/>
+      <c r="C43" s="244"/>
+      <c r="D43" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="172"/>
-      <c r="F43" s="169"/>
-      <c r="G43" s="169"/>
-      <c r="H43" s="169"/>
-      <c r="I43" s="169"/>
-      <c r="J43" s="169"/>
-      <c r="K43" s="172" t="s">
+      <c r="E43" s="163"/>
+      <c r="F43" s="162"/>
+      <c r="G43" s="162"/>
+      <c r="H43" s="162"/>
+      <c r="I43" s="162"/>
+      <c r="J43" s="162"/>
+      <c r="K43" s="163" t="s">
         <v>246</v>
       </c>
-      <c r="L43" s="170" t="s">
+      <c r="L43" s="164" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="245"/>
-      <c r="B44" s="220"/>
-      <c r="C44" s="197"/>
-      <c r="D44" s="179"/>
-      <c r="E44" s="172"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="169"/>
-      <c r="I44" s="169"/>
-      <c r="J44" s="169"/>
-      <c r="K44" s="172"/>
-      <c r="L44" s="170"/>
+      <c r="A44" s="179"/>
+      <c r="B44" s="198"/>
+      <c r="C44" s="244"/>
+      <c r="D44" s="204"/>
+      <c r="E44" s="163"/>
+      <c r="F44" s="162"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="162"/>
+      <c r="K44" s="163"/>
+      <c r="L44" s="164"/>
     </row>
     <row r="45" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="245"/>
-      <c r="B45" s="220"/>
-      <c r="C45" s="197"/>
-      <c r="D45" s="194" t="s">
+      <c r="A45" s="179"/>
+      <c r="B45" s="198"/>
+      <c r="C45" s="244"/>
+      <c r="D45" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="224" t="s">
+      <c r="E45" s="239" t="s">
         <v>55</v>
       </c>
-      <c r="F45" s="169"/>
-      <c r="G45" s="169"/>
-      <c r="H45" s="169"/>
-      <c r="I45" s="169"/>
-      <c r="J45" s="169"/>
-      <c r="K45" s="172" t="s">
+      <c r="F45" s="162"/>
+      <c r="G45" s="162"/>
+      <c r="H45" s="162"/>
+      <c r="I45" s="162"/>
+      <c r="J45" s="162"/>
+      <c r="K45" s="163" t="s">
         <v>266</v>
       </c>
-      <c r="L45" s="133" t="s">
+      <c r="L45" s="128" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="245"/>
-      <c r="B46" s="220"/>
-      <c r="C46" s="197"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="224"/>
-      <c r="F46" s="169"/>
-      <c r="G46" s="169"/>
-      <c r="H46" s="169"/>
-      <c r="I46" s="169"/>
-      <c r="J46" s="169"/>
-      <c r="K46" s="172"/>
-      <c r="L46" s="150" t="s">
+      <c r="A46" s="179"/>
+      <c r="B46" s="198"/>
+      <c r="C46" s="244"/>
+      <c r="D46" s="242"/>
+      <c r="E46" s="239"/>
+      <c r="F46" s="162"/>
+      <c r="G46" s="162"/>
+      <c r="H46" s="162"/>
+      <c r="I46" s="162"/>
+      <c r="J46" s="162"/>
+      <c r="K46" s="163"/>
+      <c r="L46" s="145" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="245"/>
-      <c r="B47" s="220"/>
-      <c r="C47" s="197"/>
-      <c r="D47" s="195"/>
-      <c r="E47" s="260" t="s">
+      <c r="A47" s="179"/>
+      <c r="B47" s="198"/>
+      <c r="C47" s="244"/>
+      <c r="D47" s="242"/>
+      <c r="E47" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="169"/>
-      <c r="G47" s="169"/>
-      <c r="H47" s="169"/>
-      <c r="I47" s="169"/>
-      <c r="J47" s="169"/>
-      <c r="K47" s="172" t="s">
+      <c r="F47" s="162"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="162"/>
+      <c r="I47" s="162"/>
+      <c r="J47" s="162"/>
+      <c r="K47" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="L47" s="133" t="s">
+      <c r="L47" s="128" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="245"/>
-      <c r="B48" s="220"/>
-      <c r="C48" s="197"/>
-      <c r="D48" s="195"/>
-      <c r="E48" s="260"/>
-      <c r="F48" s="169"/>
-      <c r="G48" s="169"/>
-      <c r="H48" s="169"/>
-      <c r="I48" s="169"/>
-      <c r="J48" s="169"/>
-      <c r="K48" s="172"/>
-      <c r="L48" s="150" t="s">
+      <c r="A48" s="179"/>
+      <c r="B48" s="198"/>
+      <c r="C48" s="244"/>
+      <c r="D48" s="242"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="162"/>
+      <c r="H48" s="162"/>
+      <c r="I48" s="162"/>
+      <c r="J48" s="162"/>
+      <c r="K48" s="163"/>
+      <c r="L48" s="145" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="245"/>
-      <c r="B49" s="220"/>
-      <c r="C49" s="197"/>
-      <c r="D49" s="177"/>
-      <c r="E49" s="159" t="s">
+      <c r="A49" s="179"/>
+      <c r="B49" s="198"/>
+      <c r="C49" s="244"/>
+      <c r="D49" s="194"/>
+      <c r="E49" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="129"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="129"/>
-      <c r="K49" s="153" t="s">
+      <c r="F49" s="124"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="L49" s="101" t="s">
+      <c r="L49" s="98" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="245"/>
-      <c r="B50" s="220"/>
-      <c r="C50" s="198"/>
-      <c r="D50" s="102" t="s">
+      <c r="A50" s="179"/>
+      <c r="B50" s="198"/>
+      <c r="C50" s="245"/>
+      <c r="D50" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="47"/>
-      <c r="F50" s="143"/>
-      <c r="G50" s="143"/>
-      <c r="H50" s="143"/>
-      <c r="I50" s="143"/>
-      <c r="J50" s="143"/>
-      <c r="K50" s="136" t="s">
+      <c r="E50" s="44"/>
+      <c r="F50" s="138"/>
+      <c r="G50" s="138"/>
+      <c r="H50" s="138"/>
+      <c r="I50" s="138"/>
+      <c r="J50" s="138"/>
+      <c r="K50" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="L50" s="147" t="s">
+      <c r="L50" s="142" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="245"/>
-      <c r="B51" s="220"/>
-      <c r="C51" s="199" t="s">
+      <c r="A51" s="179"/>
+      <c r="B51" s="198"/>
+      <c r="C51" s="246" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="138" t="s">
+      <c r="D51" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="141"/>
-      <c r="G51" s="141"/>
-      <c r="H51" s="141"/>
-      <c r="I51" s="141"/>
-      <c r="J51" s="141"/>
-      <c r="K51" s="135" t="s">
+      <c r="E51" s="45"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
+      <c r="K51" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="L51" s="132" t="s">
+      <c r="L51" s="127" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="245"/>
-      <c r="B52" s="220"/>
-      <c r="C52" s="200"/>
-      <c r="D52" s="139" t="s">
+      <c r="A52" s="179"/>
+      <c r="B52" s="198"/>
+      <c r="C52" s="247"/>
+      <c r="D52" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="134"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="137"/>
-      <c r="J52" s="137"/>
-      <c r="K52" s="134" t="s">
+      <c r="E52" s="129"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="132"/>
+      <c r="K52" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="L52" s="133" t="s">
+      <c r="L52" s="128" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="245"/>
-      <c r="B53" s="220"/>
-      <c r="C53" s="200"/>
-      <c r="D53" s="194" t="s">
+      <c r="A53" s="179"/>
+      <c r="B53" s="198"/>
+      <c r="C53" s="247"/>
+      <c r="D53" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="172" t="s">
+      <c r="E53" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="F53" s="169"/>
-      <c r="G53" s="169"/>
-      <c r="H53" s="169"/>
-      <c r="I53" s="169"/>
-      <c r="J53" s="169"/>
-      <c r="K53" s="172" t="s">
+      <c r="F53" s="162"/>
+      <c r="G53" s="162"/>
+      <c r="H53" s="162"/>
+      <c r="I53" s="162"/>
+      <c r="J53" s="162"/>
+      <c r="K53" s="163" t="s">
         <v>267</v>
       </c>
-      <c r="L53" s="170" t="s">
+      <c r="L53" s="164" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="245"/>
-      <c r="B54" s="220"/>
-      <c r="C54" s="200"/>
-      <c r="D54" s="195"/>
-      <c r="E54" s="172"/>
-      <c r="F54" s="169"/>
-      <c r="G54" s="169"/>
-      <c r="H54" s="169"/>
-      <c r="I54" s="169"/>
-      <c r="J54" s="169"/>
-      <c r="K54" s="172"/>
-      <c r="L54" s="170"/>
+      <c r="A54" s="179"/>
+      <c r="B54" s="198"/>
+      <c r="C54" s="247"/>
+      <c r="D54" s="242"/>
+      <c r="E54" s="163"/>
+      <c r="F54" s="162"/>
+      <c r="G54" s="162"/>
+      <c r="H54" s="162"/>
+      <c r="I54" s="162"/>
+      <c r="J54" s="162"/>
+      <c r="K54" s="163"/>
+      <c r="L54" s="164"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="245"/>
-      <c r="B55" s="220"/>
-      <c r="C55" s="200"/>
-      <c r="D55" s="195"/>
-      <c r="E55" s="260" t="s">
+      <c r="A55" s="179"/>
+      <c r="B55" s="198"/>
+      <c r="C55" s="247"/>
+      <c r="D55" s="242"/>
+      <c r="E55" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="F55" s="169"/>
-      <c r="G55" s="169"/>
-      <c r="H55" s="169"/>
-      <c r="I55" s="169"/>
-      <c r="J55" s="169"/>
-      <c r="K55" s="172" t="s">
+      <c r="F55" s="162"/>
+      <c r="G55" s="162"/>
+      <c r="H55" s="162"/>
+      <c r="I55" s="162"/>
+      <c r="J55" s="162"/>
+      <c r="K55" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="L55" s="170" t="s">
+      <c r="L55" s="164" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="245"/>
-      <c r="B56" s="220"/>
-      <c r="C56" s="200"/>
-      <c r="D56" s="195"/>
-      <c r="E56" s="260"/>
-      <c r="F56" s="169"/>
-      <c r="G56" s="169"/>
-      <c r="H56" s="169"/>
-      <c r="I56" s="169"/>
-      <c r="J56" s="169"/>
-      <c r="K56" s="172"/>
-      <c r="L56" s="170"/>
+      <c r="A56" s="179"/>
+      <c r="B56" s="198"/>
+      <c r="C56" s="247"/>
+      <c r="D56" s="242"/>
+      <c r="E56" s="168"/>
+      <c r="F56" s="162"/>
+      <c r="G56" s="162"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="162"/>
+      <c r="K56" s="163"/>
+      <c r="L56" s="164"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="245"/>
-      <c r="B57" s="220"/>
-      <c r="C57" s="200"/>
-      <c r="D57" s="177"/>
-      <c r="E57" s="159" t="s">
+      <c r="A57" s="179"/>
+      <c r="B57" s="198"/>
+      <c r="C57" s="247"/>
+      <c r="D57" s="194"/>
+      <c r="E57" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="F57" s="129"/>
-      <c r="G57" s="129"/>
-      <c r="H57" s="129"/>
-      <c r="I57" s="129"/>
-      <c r="J57" s="129"/>
-      <c r="K57" s="153" t="s">
+      <c r="F57" s="124"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="124"/>
+      <c r="J57" s="124"/>
+      <c r="K57" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="L57" s="161" t="s">
+      <c r="L57" s="156" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="245"/>
-      <c r="B58" s="220"/>
-      <c r="C58" s="201"/>
-      <c r="D58" s="102" t="s">
+      <c r="A58" s="179"/>
+      <c r="B58" s="198"/>
+      <c r="C58" s="248"/>
+      <c r="D58" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="146"/>
-      <c r="F58" s="143"/>
-      <c r="G58" s="143"/>
-      <c r="H58" s="143"/>
-      <c r="I58" s="143"/>
-      <c r="J58" s="143"/>
-      <c r="K58" s="136" t="s">
+      <c r="E58" s="141"/>
+      <c r="F58" s="138"/>
+      <c r="G58" s="138"/>
+      <c r="H58" s="138"/>
+      <c r="I58" s="138"/>
+      <c r="J58" s="138"/>
+      <c r="K58" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="L58" s="147" t="s">
+      <c r="L58" s="142" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="245"/>
-      <c r="B59" s="220"/>
-      <c r="C59" s="242" t="s">
+      <c r="A59" s="179"/>
+      <c r="B59" s="198"/>
+      <c r="C59" s="185" t="s">
         <v>230</v>
       </c>
-      <c r="D59" s="242" t="s">
+      <c r="D59" s="185" t="s">
         <v>229</v>
       </c>
-      <c r="E59" s="177" t="s">
+      <c r="E59" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="F59" s="180"/>
-      <c r="G59" s="181"/>
-      <c r="H59" s="181"/>
-      <c r="I59" s="181"/>
-      <c r="J59" s="181"/>
-      <c r="K59" s="173" t="s">
+      <c r="F59" s="251"/>
+      <c r="G59" s="171"/>
+      <c r="H59" s="171"/>
+      <c r="I59" s="171"/>
+      <c r="J59" s="171"/>
+      <c r="K59" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="L59" s="167" t="s">
+      <c r="L59" s="165" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="245"/>
-      <c r="B60" s="220"/>
-      <c r="C60" s="243"/>
-      <c r="D60" s="243"/>
-      <c r="E60" s="178"/>
-      <c r="F60" s="171"/>
-      <c r="G60" s="169"/>
-      <c r="H60" s="169"/>
-      <c r="I60" s="169"/>
-      <c r="J60" s="169"/>
-      <c r="K60" s="172"/>
-      <c r="L60" s="170"/>
+      <c r="A60" s="179"/>
+      <c r="B60" s="198"/>
+      <c r="C60" s="186"/>
+      <c r="D60" s="186"/>
+      <c r="E60" s="201"/>
+      <c r="F60" s="252"/>
+      <c r="G60" s="162"/>
+      <c r="H60" s="162"/>
+      <c r="I60" s="162"/>
+      <c r="J60" s="162"/>
+      <c r="K60" s="163"/>
+      <c r="L60" s="164"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="245"/>
-      <c r="B61" s="220"/>
-      <c r="C61" s="243"/>
-      <c r="D61" s="252"/>
-      <c r="E61" s="179" t="s">
+      <c r="A61" s="179"/>
+      <c r="B61" s="198"/>
+      <c r="C61" s="186"/>
+      <c r="D61" s="188"/>
+      <c r="E61" s="204" t="s">
         <v>74</v>
       </c>
-      <c r="F61" s="171"/>
-      <c r="G61" s="171"/>
-      <c r="H61" s="171"/>
-      <c r="I61" s="169"/>
-      <c r="J61" s="169"/>
-      <c r="K61" s="172" t="s">
+      <c r="F61" s="252"/>
+      <c r="G61" s="252"/>
+      <c r="H61" s="252"/>
+      <c r="I61" s="162"/>
+      <c r="J61" s="162"/>
+      <c r="K61" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="L61" s="170" t="s">
+      <c r="L61" s="164" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="245"/>
-      <c r="B62" s="220"/>
-      <c r="C62" s="243"/>
-      <c r="D62" s="252"/>
-      <c r="E62" s="178"/>
-      <c r="F62" s="171"/>
-      <c r="G62" s="171"/>
-      <c r="H62" s="171"/>
-      <c r="I62" s="169"/>
-      <c r="J62" s="169"/>
-      <c r="K62" s="172"/>
-      <c r="L62" s="170"/>
+      <c r="A62" s="179"/>
+      <c r="B62" s="198"/>
+      <c r="C62" s="186"/>
+      <c r="D62" s="188"/>
+      <c r="E62" s="201"/>
+      <c r="F62" s="252"/>
+      <c r="G62" s="252"/>
+      <c r="H62" s="252"/>
+      <c r="I62" s="162"/>
+      <c r="J62" s="162"/>
+      <c r="K62" s="163"/>
+      <c r="L62" s="164"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="245"/>
-      <c r="B63" s="220"/>
-      <c r="C63" s="243"/>
-      <c r="D63" s="252"/>
-      <c r="E63" s="179" t="s">
+      <c r="A63" s="179"/>
+      <c r="B63" s="198"/>
+      <c r="C63" s="186"/>
+      <c r="D63" s="188"/>
+      <c r="E63" s="204" t="s">
         <v>261</v>
       </c>
-      <c r="F63" s="171"/>
-      <c r="G63" s="171"/>
-      <c r="H63" s="182"/>
-      <c r="I63" s="169"/>
-      <c r="J63" s="169"/>
-      <c r="K63" s="172" t="s">
+      <c r="F63" s="252"/>
+      <c r="G63" s="252"/>
+      <c r="H63" s="253"/>
+      <c r="I63" s="162"/>
+      <c r="J63" s="162"/>
+      <c r="K63" s="163" t="s">
         <v>262</v>
       </c>
-      <c r="L63" s="203" t="s">
+      <c r="L63" s="217" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="245"/>
-      <c r="B64" s="220"/>
-      <c r="C64" s="243"/>
-      <c r="D64" s="252"/>
-      <c r="E64" s="179"/>
-      <c r="F64" s="171"/>
-      <c r="G64" s="171"/>
-      <c r="H64" s="183"/>
-      <c r="I64" s="169"/>
-      <c r="J64" s="169"/>
-      <c r="K64" s="172"/>
-      <c r="L64" s="203"/>
+      <c r="A64" s="179"/>
+      <c r="B64" s="198"/>
+      <c r="C64" s="186"/>
+      <c r="D64" s="188"/>
+      <c r="E64" s="204"/>
+      <c r="F64" s="252"/>
+      <c r="G64" s="252"/>
+      <c r="H64" s="254"/>
+      <c r="I64" s="162"/>
+      <c r="J64" s="162"/>
+      <c r="K64" s="163"/>
+      <c r="L64" s="217"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="245"/>
-      <c r="B65" s="220"/>
-      <c r="C65" s="243"/>
-      <c r="D65" s="252"/>
-      <c r="E65" s="179"/>
-      <c r="F65" s="171"/>
-      <c r="G65" s="171"/>
-      <c r="H65" s="184"/>
-      <c r="I65" s="169"/>
-      <c r="J65" s="169"/>
-      <c r="K65" s="172"/>
-      <c r="L65" s="203"/>
+      <c r="A65" s="179"/>
+      <c r="B65" s="198"/>
+      <c r="C65" s="186"/>
+      <c r="D65" s="188"/>
+      <c r="E65" s="204"/>
+      <c r="F65" s="252"/>
+      <c r="G65" s="252"/>
+      <c r="H65" s="255"/>
+      <c r="I65" s="162"/>
+      <c r="J65" s="162"/>
+      <c r="K65" s="163"/>
+      <c r="L65" s="217"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="245"/>
-      <c r="B66" s="220"/>
-      <c r="C66" s="243"/>
-      <c r="D66" s="252"/>
-      <c r="E66" s="49" t="s">
+      <c r="A66" s="179"/>
+      <c r="B66" s="198"/>
+      <c r="C66" s="186"/>
+      <c r="D66" s="188"/>
+      <c r="E66" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="137"/>
-      <c r="K66" s="134" t="s">
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="132"/>
+      <c r="K66" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="L66" s="133" t="s">
+      <c r="L66" s="128" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="245"/>
-      <c r="B67" s="220"/>
-      <c r="C67" s="243"/>
-      <c r="D67" s="252"/>
-      <c r="E67" s="139" t="s">
+      <c r="A67" s="179"/>
+      <c r="B67" s="198"/>
+      <c r="C67" s="186"/>
+      <c r="D67" s="188"/>
+      <c r="E67" s="134" t="s">
         <v>231</v>
       </c>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="137"/>
-      <c r="I67" s="137"/>
-      <c r="J67" s="137"/>
-      <c r="K67" s="134" t="s">
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="132"/>
+      <c r="I67" s="132"/>
+      <c r="J67" s="132"/>
+      <c r="K67" s="129" t="s">
         <v>196</v>
       </c>
-      <c r="L67" s="133" t="s">
+      <c r="L67" s="128" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="245"/>
-      <c r="B68" s="220"/>
-      <c r="C68" s="243"/>
-      <c r="D68" s="252"/>
-      <c r="E68" s="140" t="s">
+      <c r="A68" s="179"/>
+      <c r="B68" s="198"/>
+      <c r="C68" s="186"/>
+      <c r="D68" s="188"/>
+      <c r="E68" s="135" t="s">
         <v>179</v>
       </c>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="137"/>
-      <c r="I68" s="137"/>
-      <c r="J68" s="137"/>
-      <c r="K68" s="134" t="s">
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="132"/>
+      <c r="I68" s="132"/>
+      <c r="J68" s="132"/>
+      <c r="K68" s="129" t="s">
         <v>250</v>
       </c>
-      <c r="L68" s="133" t="s">
+      <c r="L68" s="128" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="245"/>
-      <c r="B69" s="220"/>
-      <c r="C69" s="243"/>
-      <c r="D69" s="252"/>
-      <c r="E69" s="49" t="s">
+      <c r="A69" s="179"/>
+      <c r="B69" s="198"/>
+      <c r="C69" s="186"/>
+      <c r="D69" s="188"/>
+      <c r="E69" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="137"/>
-      <c r="I69" s="137"/>
-      <c r="J69" s="137"/>
-      <c r="K69" s="134" t="s">
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="132"/>
+      <c r="I69" s="132"/>
+      <c r="J69" s="132"/>
+      <c r="K69" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="L69" s="133" t="s">
+      <c r="L69" s="128" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="245"/>
-      <c r="B70" s="220"/>
-      <c r="C70" s="243"/>
-      <c r="D70" s="252"/>
-      <c r="E70" s="144" t="s">
+      <c r="A70" s="179"/>
+      <c r="B70" s="198"/>
+      <c r="C70" s="186"/>
+      <c r="D70" s="188"/>
+      <c r="E70" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="F70" s="51"/>
-      <c r="G70" s="137"/>
-      <c r="H70" s="137"/>
-      <c r="I70" s="155"/>
-      <c r="J70" s="155"/>
-      <c r="K70" s="134" t="s">
+      <c r="F70" s="48"/>
+      <c r="G70" s="132"/>
+      <c r="H70" s="132"/>
+      <c r="I70" s="150"/>
+      <c r="J70" s="150"/>
+      <c r="K70" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="L70" s="133" t="s">
+      <c r="L70" s="128" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="245"/>
-      <c r="B71" s="220"/>
-      <c r="C71" s="243"/>
-      <c r="D71" s="253"/>
-      <c r="E71" s="52" t="s">
+      <c r="A71" s="179"/>
+      <c r="B71" s="198"/>
+      <c r="C71" s="186"/>
+      <c r="D71" s="189"/>
+      <c r="E71" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F71" s="142"/>
-      <c r="G71" s="129"/>
-      <c r="H71" s="129"/>
-      <c r="I71" s="152"/>
-      <c r="J71" s="152"/>
-      <c r="K71" s="153" t="s">
+      <c r="F71" s="137"/>
+      <c r="G71" s="124"/>
+      <c r="H71" s="124"/>
+      <c r="I71" s="147"/>
+      <c r="J71" s="147"/>
+      <c r="K71" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="L71" s="161" t="s">
+      <c r="L71" s="156" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="245"/>
-      <c r="B72" s="220"/>
-      <c r="C72" s="53" t="s">
+      <c r="A72" s="179"/>
+      <c r="B72" s="198"/>
+      <c r="C72" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D72" s="54"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="57"/>
-      <c r="K72" s="55" t="s">
+      <c r="D72" s="51"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="L72" s="58" t="s">
+      <c r="L72" s="55" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="245"/>
-      <c r="B73" s="220"/>
-      <c r="C73" s="187" t="s">
+      <c r="A73" s="179"/>
+      <c r="B73" s="198"/>
+      <c r="C73" s="240" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="138" t="s">
+      <c r="D73" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="135"/>
-      <c r="F73" s="141"/>
-      <c r="G73" s="141"/>
-      <c r="H73" s="141"/>
-      <c r="I73" s="141"/>
-      <c r="J73" s="151"/>
-      <c r="K73" s="135" t="s">
+      <c r="E73" s="130"/>
+      <c r="F73" s="136"/>
+      <c r="G73" s="136"/>
+      <c r="H73" s="136"/>
+      <c r="I73" s="136"/>
+      <c r="J73" s="146"/>
+      <c r="K73" s="130" t="s">
         <v>209</v>
       </c>
-      <c r="L73" s="41" t="s">
+      <c r="L73" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="245"/>
-      <c r="B74" s="220"/>
-      <c r="C74" s="188"/>
-      <c r="D74" s="131" t="s">
+      <c r="A74" s="179"/>
+      <c r="B74" s="198"/>
+      <c r="C74" s="241"/>
+      <c r="D74" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="154"/>
-      <c r="F74" s="130"/>
-      <c r="G74" s="130"/>
-      <c r="H74" s="130"/>
-      <c r="I74" s="130"/>
-      <c r="J74" s="45"/>
-      <c r="K74" s="154" t="s">
+      <c r="E74" s="149"/>
+      <c r="F74" s="125"/>
+      <c r="G74" s="125"/>
+      <c r="H74" s="125"/>
+      <c r="I74" s="125"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="149" t="s">
         <v>268</v>
       </c>
-      <c r="L74" s="36" t="s">
+      <c r="L74" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="245"/>
-      <c r="B75" s="220"/>
-      <c r="C75" s="251" t="s">
+      <c r="A75" s="179"/>
+      <c r="B75" s="198"/>
+      <c r="C75" s="187" t="s">
         <v>237</v>
       </c>
-      <c r="D75" s="98" t="s">
+      <c r="D75" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="E75" s="35" t="s">
+      <c r="E75" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="130"/>
-      <c r="G75" s="130"/>
-      <c r="H75" s="130"/>
-      <c r="I75" s="130"/>
-      <c r="J75" s="130"/>
-      <c r="K75" s="154" t="s">
+      <c r="F75" s="125"/>
+      <c r="G75" s="125"/>
+      <c r="H75" s="125"/>
+      <c r="I75" s="125"/>
+      <c r="J75" s="125"/>
+      <c r="K75" s="149" t="s">
         <v>269</v>
       </c>
-      <c r="L75" s="36" t="s">
+      <c r="L75" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="245"/>
-      <c r="B76" s="220"/>
-      <c r="C76" s="252"/>
-      <c r="D76" s="99" t="s">
+      <c r="A76" s="179"/>
+      <c r="B76" s="198"/>
+      <c r="C76" s="188"/>
+      <c r="D76" s="96" t="s">
         <v>243</v>
       </c>
-      <c r="E76" s="59"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="60"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="62" t="s">
+      <c r="E76" s="56"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="L76" s="132" t="s">
+      <c r="L76" s="127" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="245"/>
-      <c r="B77" s="220"/>
-      <c r="C77" s="252"/>
-      <c r="D77" s="63" t="s">
+      <c r="A77" s="179"/>
+      <c r="B77" s="198"/>
+      <c r="C77" s="188"/>
+      <c r="D77" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="E77" s="64"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="67" t="s">
+      <c r="E77" s="61"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="L77" s="161" t="s">
+      <c r="L77" s="156" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="245"/>
-      <c r="B78" s="220"/>
-      <c r="C78" s="253"/>
-      <c r="D78" s="68" t="s">
+      <c r="A78" s="179"/>
+      <c r="B78" s="198"/>
+      <c r="C78" s="189"/>
+      <c r="D78" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="E78" s="69"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="71"/>
-      <c r="K78" s="72" t="s">
+      <c r="E78" s="66"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="67"/>
+      <c r="J78" s="68"/>
+      <c r="K78" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="L78" s="147" t="s">
+      <c r="L78" s="142" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="245"/>
-      <c r="B79" s="220"/>
-      <c r="C79" s="247" t="s">
+      <c r="A79" s="179"/>
+      <c r="B79" s="198"/>
+      <c r="C79" s="181" t="s">
         <v>101</v>
       </c>
-      <c r="D79" s="73" t="s">
+      <c r="D79" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E79" s="74"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="75"/>
-      <c r="I79" s="75"/>
-      <c r="J79" s="76"/>
-      <c r="K79" s="77" t="s">
+      <c r="E79" s="71"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="72"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="L79" s="78" t="s">
+      <c r="L79" s="75" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="245"/>
-      <c r="B80" s="220"/>
-      <c r="C80" s="248"/>
-      <c r="D80" s="158" t="s">
+      <c r="A80" s="179"/>
+      <c r="B80" s="198"/>
+      <c r="C80" s="182"/>
+      <c r="D80" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="64"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="65"/>
-      <c r="I80" s="65"/>
-      <c r="J80" s="66"/>
-      <c r="K80" s="67" t="s">
+      <c r="E80" s="61"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="63"/>
+      <c r="K80" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="L80" s="133" t="s">
+      <c r="L80" s="128" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="245"/>
-      <c r="B81" s="220"/>
-      <c r="C81" s="248"/>
-      <c r="D81" s="250" t="s">
+      <c r="A81" s="179"/>
+      <c r="B81" s="198"/>
+      <c r="C81" s="182"/>
+      <c r="D81" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="E81" s="64" t="s">
+      <c r="E81" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="F81" s="65"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="65"/>
-      <c r="I81" s="65"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="67" t="s">
+      <c r="F81" s="62"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="L81" s="133" t="s">
+      <c r="L81" s="128" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="245"/>
-      <c r="B82" s="220"/>
-      <c r="C82" s="248"/>
-      <c r="D82" s="250"/>
-      <c r="E82" s="79" t="s">
+      <c r="A82" s="179"/>
+      <c r="B82" s="198"/>
+      <c r="C82" s="182"/>
+      <c r="D82" s="184"/>
+      <c r="E82" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="65"/>
-      <c r="I82" s="65"/>
-      <c r="J82" s="66"/>
-      <c r="K82" s="67" t="s">
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="63"/>
+      <c r="K82" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="L82" s="133" t="s">
+      <c r="L82" s="128" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="245"/>
-      <c r="B83" s="220"/>
-      <c r="C83" s="248"/>
-      <c r="D83" s="250"/>
-      <c r="E83" s="79" t="s">
+      <c r="A83" s="179"/>
+      <c r="B83" s="198"/>
+      <c r="C83" s="182"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="67" t="s">
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="L83" s="133" t="s">
+      <c r="L83" s="128" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="245"/>
-      <c r="B84" s="220"/>
-      <c r="C84" s="248"/>
-      <c r="D84" s="158" t="s">
+      <c r="A84" s="179"/>
+      <c r="B84" s="198"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="153" t="s">
         <v>227</v>
       </c>
-      <c r="E84" s="64"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="65"/>
-      <c r="I84" s="65"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="67" t="s">
+      <c r="E84" s="61"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="62"/>
+      <c r="H84" s="62"/>
+      <c r="I84" s="62"/>
+      <c r="J84" s="63"/>
+      <c r="K84" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="L84" s="161" t="s">
+      <c r="L84" s="156" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="245"/>
-      <c r="B85" s="220"/>
-      <c r="C85" s="248"/>
-      <c r="D85" s="158" t="s">
+      <c r="A85" s="179"/>
+      <c r="B85" s="198"/>
+      <c r="C85" s="182"/>
+      <c r="D85" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="E85" s="64"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="65"/>
-      <c r="H85" s="65"/>
-      <c r="I85" s="65"/>
-      <c r="J85" s="66"/>
-      <c r="K85" s="67" t="s">
+      <c r="E85" s="61"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="62"/>
+      <c r="I85" s="62"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="L85" s="165" t="s">
+      <c r="L85" s="160" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="245"/>
-      <c r="B86" s="220"/>
-      <c r="C86" s="249"/>
-      <c r="D86" s="158" t="s">
+      <c r="A86" s="179"/>
+      <c r="B86" s="198"/>
+      <c r="C86" s="183"/>
+      <c r="D86" s="153" t="s">
         <v>258</v>
       </c>
-      <c r="E86" s="80"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="81"/>
-      <c r="H86" s="81"/>
-      <c r="I86" s="81"/>
-      <c r="J86" s="81"/>
-      <c r="K86" s="82" t="s">
+      <c r="E86" s="77"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="78"/>
+      <c r="H86" s="78"/>
+      <c r="I86" s="78"/>
+      <c r="J86" s="78"/>
+      <c r="K86" s="79" t="s">
         <v>252</v>
       </c>
-      <c r="L86" s="100" t="s">
+      <c r="L86" s="97" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="245"/>
-      <c r="B87" s="220"/>
-      <c r="C87" s="249"/>
-      <c r="D87" s="166" t="s">
+      <c r="A87" s="179"/>
+      <c r="B87" s="198"/>
+      <c r="C87" s="183"/>
+      <c r="D87" s="161" t="s">
         <v>276</v>
       </c>
-      <c r="E87" s="69"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70"/>
-      <c r="I87" s="70"/>
-      <c r="J87" s="71"/>
-      <c r="K87" s="72" t="s">
+      <c r="E87" s="66"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="68"/>
+      <c r="K87" s="69" t="s">
         <v>277</v>
       </c>
-      <c r="L87" s="147" t="s">
+      <c r="L87" s="142" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="245"/>
-      <c r="B88" s="254" t="s">
+      <c r="A88" s="179"/>
+      <c r="B88" s="192" t="s">
         <v>72</v>
       </c>
-      <c r="C88" s="83" t="s">
+      <c r="C88" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="D88" s="84"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="86"/>
-      <c r="G88" s="86"/>
-      <c r="H88" s="86"/>
-      <c r="I88" s="86"/>
-      <c r="J88" s="86"/>
-      <c r="K88" s="77" t="s">
+      <c r="D88" s="81"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="83"/>
+      <c r="I88" s="83"/>
+      <c r="J88" s="83"/>
+      <c r="K88" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="L88" s="108" t="s">
+      <c r="L88" s="103" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="245"/>
-      <c r="B89" s="254"/>
-      <c r="C89" s="87" t="s">
+      <c r="A89" s="179"/>
+      <c r="B89" s="192"/>
+      <c r="C89" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="D89" s="88"/>
-      <c r="E89" s="89"/>
-      <c r="F89" s="90"/>
-      <c r="G89" s="90"/>
-      <c r="H89" s="90"/>
-      <c r="I89" s="90"/>
-      <c r="J89" s="90"/>
-      <c r="K89" s="67" t="s">
+      <c r="D89" s="85"/>
+      <c r="E89" s="86"/>
+      <c r="F89" s="87"/>
+      <c r="G89" s="87"/>
+      <c r="H89" s="87"/>
+      <c r="I89" s="87"/>
+      <c r="J89" s="87"/>
+      <c r="K89" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="L89" s="133" t="s">
+      <c r="L89" s="128" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="245"/>
-      <c r="B90" s="254"/>
-      <c r="C90" s="91" t="s">
+      <c r="A90" s="179"/>
+      <c r="B90" s="192"/>
+      <c r="C90" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="D90" s="92"/>
-      <c r="E90" s="93"/>
-      <c r="F90" s="94"/>
-      <c r="G90" s="94"/>
-      <c r="H90" s="94"/>
-      <c r="I90" s="94"/>
-      <c r="J90" s="94"/>
-      <c r="K90" s="95" t="s">
+      <c r="D90" s="89"/>
+      <c r="E90" s="90"/>
+      <c r="F90" s="91"/>
+      <c r="G90" s="91"/>
+      <c r="H90" s="91"/>
+      <c r="I90" s="91"/>
+      <c r="J90" s="91"/>
+      <c r="K90" s="92" t="s">
         <v>213</v>
       </c>
-      <c r="L90" s="161" t="s">
+      <c r="L90" s="156" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="245"/>
-      <c r="B91" s="254"/>
-      <c r="C91" s="87" t="s">
+      <c r="A91" s="179"/>
+      <c r="B91" s="192"/>
+      <c r="C91" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="D91" s="88"/>
-      <c r="E91" s="89"/>
-      <c r="F91" s="90"/>
-      <c r="G91" s="90"/>
-      <c r="H91" s="90"/>
-      <c r="I91" s="90"/>
-      <c r="J91" s="90"/>
-      <c r="K91" s="67" t="s">
+      <c r="D91" s="85"/>
+      <c r="E91" s="86"/>
+      <c r="F91" s="87"/>
+      <c r="G91" s="87"/>
+      <c r="H91" s="87"/>
+      <c r="I91" s="87"/>
+      <c r="J91" s="87"/>
+      <c r="K91" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="L91" s="133" t="s">
+      <c r="L91" s="128" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="245"/>
-      <c r="B92" s="254"/>
-      <c r="C92" s="87" t="s">
+      <c r="A92" s="179"/>
+      <c r="B92" s="192"/>
+      <c r="C92" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="D92" s="88"/>
-      <c r="E92" s="89"/>
-      <c r="F92" s="90"/>
-      <c r="G92" s="90"/>
-      <c r="H92" s="90"/>
-      <c r="I92" s="90"/>
-      <c r="J92" s="90"/>
-      <c r="K92" s="67" t="s">
+      <c r="D92" s="85"/>
+      <c r="E92" s="86"/>
+      <c r="F92" s="87"/>
+      <c r="G92" s="87"/>
+      <c r="H92" s="87"/>
+      <c r="I92" s="87"/>
+      <c r="J92" s="87"/>
+      <c r="K92" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="L92" s="133" t="s">
+      <c r="L92" s="128" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="246"/>
-      <c r="B93" s="255"/>
-      <c r="C93" s="109" t="s">
+      <c r="A93" s="180"/>
+      <c r="B93" s="193"/>
+      <c r="C93" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="D93" s="110"/>
-      <c r="E93" s="111"/>
-      <c r="F93" s="112"/>
-      <c r="G93" s="112"/>
-      <c r="H93" s="112"/>
-      <c r="I93" s="112"/>
-      <c r="J93" s="112"/>
-      <c r="K93" s="72" t="s">
+      <c r="D93" s="105"/>
+      <c r="E93" s="106"/>
+      <c r="F93" s="107"/>
+      <c r="G93" s="107"/>
+      <c r="H93" s="107"/>
+      <c r="I93" s="107"/>
+      <c r="J93" s="107"/>
+      <c r="K93" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="L93" s="147" t="s">
+      <c r="L93" s="142" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K94" s="32"/>
+      <c r="K94" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="K63:K65"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="L63:L65"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="B10:B87"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="A10:A93"/>
     <mergeCell ref="C79:C87"/>
     <mergeCell ref="D81:D83"/>
@@ -5263,131 +5349,34 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="D43:D44"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="L33:L35"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L63:L65"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="B10:B87"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="G45:G46"/>
     <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="C51:C58"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="K63:K65"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="H43:H44"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L46" location="_Valores_permitidos_en" display="_Valores_permitidos_en"/>
-    <hyperlink ref="L12" location="_Valores_permitidos_en" display="_Valores_permitidos_en"/>
+    <hyperlink ref="L46" location="_Valores_permitidos_en" display="_Valores_permitidos_en" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L12" location="_Valores_permitidos_en" display="_Valores_permitidos_en" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5395,11 +5384,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5408,14 +5397,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="259" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="264"/>
+      <c r="B1" s="260"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="265"/>
-      <c r="B2" s="266"/>
+      <c r="A2" s="261"/>
+      <c r="B2" s="262"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -5462,14 +5451,14 @@
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="267" t="s">
+      <c r="A9" s="263" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="268"/>
+      <c r="B9" s="264"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="269"/>
-      <c r="B10" s="270"/>
+      <c r="A10" s="265"/>
+      <c r="B10" s="266"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
@@ -5548,14 +5537,14 @@
       <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="263" t="s">
+      <c r="A21" s="259" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="264"/>
+      <c r="B21" s="260"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="265"/>
-      <c r="B22" s="266"/>
+      <c r="A22" s="261"/>
+      <c r="B22" s="262"/>
     </row>
     <row r="23" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
@@ -5569,7 +5558,7 @@
       <c r="A24" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="25" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5577,23 +5566,20 @@
       <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-    </row>
+    <row r="26" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="262" t="s">
+      <c r="A27" s="257" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="262"/>
+      <c r="B27" s="257"/>
     </row>
     <row r="28" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="262"/>
-      <c r="B28" s="262"/>
+      <c r="A28" s="257"/>
+      <c r="B28" s="257"/>
     </row>
     <row r="29" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
@@ -5622,14 +5608,14 @@
     <row r="32" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="262" t="s">
+      <c r="A34" s="257" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="262"/>
+      <c r="B34" s="257"/>
     </row>
     <row r="35" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="262"/>
-      <c r="B35" s="262"/>
+      <c r="A35" s="257"/>
+      <c r="B35" s="257"/>
     </row>
     <row r="36" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
@@ -5657,14 +5643,14 @@
     </row>
     <row r="39" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="262" t="s">
+      <c r="A40" s="257" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="262"/>
+      <c r="B40" s="257"/>
     </row>
     <row r="41" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="262"/>
-      <c r="B41" s="262"/>
+      <c r="A41" s="257"/>
+      <c r="B41" s="257"/>
     </row>
     <row r="42" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
@@ -5675,31 +5661,31 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="24" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="262" t="s">
+      <c r="A46" s="257" t="s">
         <v>139</v>
       </c>
-      <c r="B46" s="262"/>
+      <c r="B46" s="257"/>
     </row>
     <row r="47" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="262"/>
-      <c r="B47" s="262"/>
+      <c r="A47" s="257"/>
+      <c r="B47" s="257"/>
     </row>
     <row r="48" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
@@ -5710,7 +5696,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="23" t="s">
         <v>184</v>
       </c>
       <c r="B49" s="21" t="s">
@@ -5718,7 +5704,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="23" t="s">
         <v>185</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -5726,15 +5712,15 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="103" t="s">
+      <c r="B51" s="100" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="23" t="s">
         <v>187</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -5742,7 +5728,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="23" t="s">
         <v>189</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -5750,7 +5736,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="23" t="s">
         <v>190</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -5759,10 +5745,10 @@
     </row>
     <row r="55" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="262" t="s">
+      <c r="A56" s="257" t="s">
         <v>159</v>
       </c>
-      <c r="B56" s="262"/>
+      <c r="B56" s="257"/>
     </row>
     <row r="57" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
@@ -5773,47 +5759,47 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="22" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="22" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="22" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="22" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="22" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="27" t="s">
         <v>189</v>
       </c>
       <c r="B63" t="s">
@@ -5821,82 +5807,82 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="22" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="22" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="29">
+      <c r="A67" s="27">
         <v>10</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="22" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="29">
+      <c r="A68" s="27">
         <v>11</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="22" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="29">
+      <c r="A69" s="27">
         <v>12</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="22" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="29">
+      <c r="A70" s="27">
         <v>13</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="22" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="29">
+      <c r="A71" s="27">
         <v>14</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="22" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="29">
+      <c r="A72" s="27">
         <v>15</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="22" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="30">
+      <c r="A73" s="27">
         <v>16</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="22" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5943,10 +5929,10 @@
     </row>
     <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="262" t="s">
+      <c r="A81" s="257" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="262"/>
+      <c r="B81" s="257"/>
     </row>
     <row r="82" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19" t="s">
@@ -6014,14 +6000,14 @@
     </row>
     <row r="90" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="272" t="s">
+      <c r="A91" s="258" t="s">
         <v>188</v>
       </c>
-      <c r="B91" s="272"/>
+      <c r="B91" s="258"/>
     </row>
     <row r="92" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="272"/>
-      <c r="B92" s="272"/>
+      <c r="A92" s="258"/>
+      <c r="B92" s="258"/>
     </row>
     <row r="93" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="20" t="s">
@@ -6032,34 +6018,34 @@
       </c>
     </row>
     <row r="94" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="26" t="s">
+      <c r="A94" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="24" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="26" t="s">
+      <c r="A95" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B95" s="26" t="s">
+      <c r="B95" s="24" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="96"/>
-      <c r="B96" s="96"/>
+      <c r="A96" s="93"/>
+      <c r="B96" s="93"/>
     </row>
     <row r="97" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="272" t="s">
+      <c r="A97" s="258" t="s">
         <v>216</v>
       </c>
-      <c r="B97" s="272"/>
+      <c r="B97" s="258"/>
     </row>
     <row r="98" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="272"/>
-      <c r="B98" s="272"/>
+      <c r="A98" s="258"/>
+      <c r="B98" s="258"/>
     </row>
     <row r="99" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="s">
@@ -6070,62 +6056,62 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="97" t="s">
+      <c r="A100" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="B100" s="26" t="s">
+      <c r="B100" s="24" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="271" t="s">
+      <c r="A102" s="257" t="s">
         <v>239</v>
       </c>
-      <c r="B102" s="271"/>
+      <c r="B102" s="257"/>
     </row>
     <row r="103" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="104" t="s">
+      <c r="A103" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="B103" s="105" t="s">
+      <c r="B103" s="102" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="106" t="s">
+      <c r="A104" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B104" s="107" t="s">
+      <c r="B104" s="21" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="106" t="s">
+      <c r="A105" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B105" s="107" t="s">
+      <c r="B105" s="21" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="106" t="s">
+      <c r="A106" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B106" s="107" t="s">
+      <c r="B106" s="21" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="272" t="s">
+      <c r="A108" s="258" t="s">
         <v>254</v>
       </c>
-      <c r="B108" s="272"/>
+      <c r="B108" s="258"/>
     </row>
     <row r="109" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="272"/>
-      <c r="B109" s="272"/>
+      <c r="A109" s="258"/>
+      <c r="B109" s="258"/>
     </row>
     <row r="110" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
@@ -6136,47 +6122,47 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="106" t="s">
+      <c r="A111" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B111" s="107" t="s">
+      <c r="B111" s="21" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="106" t="s">
+      <c r="A112" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B112" s="107" t="s">
+      <c r="B112" s="21" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="106" t="s">
+      <c r="A113" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B113" s="107" t="s">
+      <c r="B113" s="21" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="106" t="s">
+      <c r="A114" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B114" s="107" t="s">
+      <c r="B114" s="21" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="271" t="s">
+      <c r="A116" s="257" t="s">
         <v>259</v>
       </c>
-      <c r="B116" s="271"/>
+      <c r="B116" s="257"/>
     </row>
     <row r="117" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="271"/>
-      <c r="B117" s="271"/>
+      <c r="A117" s="257"/>
+      <c r="B117" s="257"/>
     </row>
     <row r="118" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
@@ -6187,21 +6173,16 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="107" t="s">
+      <c r="A119" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="B119" s="107" t="s">
+      <c r="B119" s="21" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A116:B117"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A108:B109"/>
-    <mergeCell ref="A97:B98"/>
-    <mergeCell ref="A91:B92"/>
     <mergeCell ref="A46:B47"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A81:B81"/>
@@ -6211,6 +6192,11 @@
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="A27:B28"/>
     <mergeCell ref="A34:B35"/>
+    <mergeCell ref="A116:B117"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A108:B109"/>
+    <mergeCell ref="A97:B98"/>
+    <mergeCell ref="A91:B92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/AnexoAlta_VERIFACTU.xlsx
+++ b/Doc/AnexoAlta_VERIFACTU.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E27A02-69C5-4777-BCD2-D009BBEFCE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="DR Alta" sheetId="1" r:id="rId1"/>
@@ -1039,7 +1038,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2292,7 +2291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2312,10 +2311,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2353,7 +2352,11 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2361,232 +2364,237 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2605,199 +2613,382 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2806,263 +2997,83 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3349,1862 +3360,2006 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75:C78"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="28" customWidth="1"/>
-    <col min="3" max="4" width="23.7109375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="25" style="28" customWidth="1"/>
-    <col min="6" max="6" width="8" style="28" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="28" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="28" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" style="28" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="28" customWidth="1"/>
-    <col min="11" max="11" width="49" style="28" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="28" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="28" customWidth="1"/>
-    <col min="14" max="14" width="38.42578125" style="28" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="10.140625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="31" customWidth="1"/>
+    <col min="3" max="4" width="23.7109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="25" style="31" customWidth="1"/>
+    <col min="6" max="6" width="8" style="31" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="49" style="31" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="31" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="31" customWidth="1"/>
+    <col min="14" max="14" width="38.42578125" style="31" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="221" t="s">
+      <c r="H1" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221" t="s">
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="L1" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="206"/>
+      <c r="M1" s="230"/>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.2">
-      <c r="A2" s="234"/>
-      <c r="B2" s="110" t="s">
+      <c r="A2" s="217"/>
+      <c r="B2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="111" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="206"/>
+      <c r="M2" s="230"/>
     </row>
     <row r="3" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="235"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="113" t="s">
+      <c r="A3" s="218"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="206"/>
+      <c r="M3" s="230"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="224" t="s">
+      <c r="A4" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="226" t="s">
+      <c r="B4" s="209" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="228"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
-      <c r="I4" s="228"/>
-      <c r="J4" s="228"/>
-      <c r="K4" s="230" t="s">
+      <c r="C4" s="211"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="213" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="207" t="s">
+      <c r="L4" s="231" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="225"/>
-      <c r="B5" s="227"/>
-      <c r="C5" s="229"/>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="229"/>
-      <c r="I5" s="229"/>
-      <c r="J5" s="229"/>
-      <c r="K5" s="231"/>
-      <c r="L5" s="208"/>
+      <c r="A5" s="208"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="212"/>
+      <c r="G5" s="212"/>
+      <c r="H5" s="212"/>
+      <c r="I5" s="212"/>
+      <c r="J5" s="212"/>
+      <c r="K5" s="214"/>
+      <c r="L5" s="232"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="225"/>
-      <c r="B6" s="232" t="s">
+      <c r="A6" s="208"/>
+      <c r="B6" s="215" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="116" t="s">
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="159" t="s">
+      <c r="L6" s="164" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="225"/>
-      <c r="B7" s="232"/>
-      <c r="C7" s="118" t="s">
+      <c r="A7" s="208"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="30" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="L7" s="157" t="s">
+      <c r="L7" s="162" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="225"/>
-      <c r="B8" s="232"/>
-      <c r="C8" s="120" t="s">
+      <c r="A8" s="208"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="125" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="30" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="L8" s="157" t="s">
+      <c r="L8" s="162" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="225"/>
-      <c r="B9" s="232"/>
-      <c r="C9" s="121" t="s">
+      <c r="A9" s="208"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="122" t="s">
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="L9" s="158" t="s">
+      <c r="L9" s="163" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="245" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="236" t="s">
+      <c r="B10" s="219" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="185" t="s">
+      <c r="C10" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="144"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="144" t="s">
+      <c r="E10" s="149"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="38" t="s">
+      <c r="L10" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="179"/>
-      <c r="B11" s="198"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="195" t="s">
+      <c r="A11" s="245"/>
+      <c r="B11" s="220"/>
+      <c r="C11" s="243"/>
+      <c r="D11" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="237"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="178" t="s">
+      <c r="E11" s="186"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="156" t="s">
+      <c r="L11" s="161" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="179"/>
-      <c r="B12" s="198"/>
-      <c r="C12" s="220"/>
-      <c r="D12" s="250"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="214"/>
-      <c r="L12" s="43" t="s">
+      <c r="A12" s="245"/>
+      <c r="B12" s="220"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="226"/>
+      <c r="L12" s="46" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="179"/>
-      <c r="B13" s="198"/>
-      <c r="C13" s="198" t="s">
+      <c r="A13" s="245"/>
+      <c r="B13" s="220"/>
+      <c r="C13" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="126" t="s">
+      <c r="D13" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="149" t="s">
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="154" t="s">
         <v>271</v>
       </c>
-      <c r="L13" s="33" t="s">
+      <c r="L13" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="179"/>
-      <c r="B14" s="198"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="34" t="s">
+      <c r="A14" s="245"/>
+      <c r="B14" s="220"/>
+      <c r="C14" s="220"/>
+      <c r="D14" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="35" t="s">
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="179"/>
-      <c r="B15" s="198"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="34" t="s">
+      <c r="A15" s="245"/>
+      <c r="B15" s="220"/>
+      <c r="C15" s="257"/>
+      <c r="D15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="35" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="40" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="179"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="194" t="s">
+      <c r="A16" s="245"/>
+      <c r="B16" s="220"/>
+      <c r="C16" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="196"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="169" t="s">
+      <c r="D16" s="192"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="221"/>
+      <c r="J16" s="221"/>
+      <c r="K16" s="173" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="165" t="s">
+      <c r="L16" s="167" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="179"/>
-      <c r="B17" s="198"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="197"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="237"/>
-      <c r="G17" s="237"/>
-      <c r="H17" s="237"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="178"/>
-      <c r="L17" s="166"/>
+      <c r="A17" s="245"/>
+      <c r="B17" s="220"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="256"/>
+      <c r="E17" s="225"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="222"/>
+      <c r="J17" s="222"/>
+      <c r="K17" s="225"/>
+      <c r="L17" s="261"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="179"/>
-      <c r="B18" s="198"/>
-      <c r="C18" s="238" t="s">
+      <c r="A18" s="245"/>
+      <c r="B18" s="220"/>
+      <c r="C18" s="223" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="219"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="219" t="s">
+      <c r="D18" s="229"/>
+      <c r="E18" s="229"/>
+      <c r="F18" s="241"/>
+      <c r="G18" s="241"/>
+      <c r="H18" s="241"/>
+      <c r="I18" s="227"/>
+      <c r="J18" s="227"/>
+      <c r="K18" s="229" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="38" t="s">
+      <c r="L18" s="41" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="179"/>
-      <c r="B19" s="198"/>
+      <c r="A19" s="245"/>
+      <c r="B19" s="220"/>
       <c r="C19" s="191"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="151"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="228"/>
+      <c r="K19" s="174"/>
+      <c r="L19" s="156"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="179"/>
-      <c r="B20" s="198"/>
-      <c r="C20" s="190" t="s">
+      <c r="A20" s="245"/>
+      <c r="B20" s="220"/>
+      <c r="C20" s="189" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="196" t="s">
+      <c r="D20" s="192" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="140" t="s">
+      <c r="E20" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="130" t="s">
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="127" t="s">
+      <c r="L20" s="132" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="179"/>
-      <c r="B21" s="198"/>
+      <c r="A21" s="245"/>
+      <c r="B21" s="220"/>
       <c r="C21" s="191"/>
-      <c r="D21" s="203"/>
-      <c r="E21" s="141" t="s">
+      <c r="D21" s="193"/>
+      <c r="E21" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="131" t="s">
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="142" t="s">
+      <c r="L21" s="147" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="179"/>
-      <c r="B22" s="198"/>
-      <c r="C22" s="190" t="s">
+      <c r="A22" s="245"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="189" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="196" t="s">
+      <c r="D22" s="192" t="s">
         <v>202</v>
       </c>
-      <c r="E22" s="140" t="s">
+      <c r="E22" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="130" t="s">
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="127" t="s">
+      <c r="L22" s="132" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="179"/>
-      <c r="B23" s="198"/>
+      <c r="A23" s="245"/>
+      <c r="B23" s="220"/>
       <c r="C23" s="191"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="141" t="s">
+      <c r="D23" s="193"/>
+      <c r="E23" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="131" t="s">
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="142" t="s">
+      <c r="L23" s="147" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="179"/>
-      <c r="B24" s="198"/>
-      <c r="C24" s="190" t="s">
+      <c r="A24" s="245"/>
+      <c r="B24" s="220"/>
+      <c r="C24" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="140" t="s">
+      <c r="D24" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="130"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="130" t="s">
+      <c r="E24" s="135"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="L24" s="127" t="s">
+      <c r="L24" s="132" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="179"/>
-      <c r="B25" s="198"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="155" t="s">
+      <c r="A25" s="245"/>
+      <c r="B25" s="220"/>
+      <c r="C25" s="190"/>
+      <c r="D25" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="129"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="129" t="s">
+      <c r="E25" s="134"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="134" t="s">
         <v>192</v>
       </c>
-      <c r="L25" s="128" t="s">
+      <c r="L25" s="133" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="179"/>
-      <c r="B26" s="198"/>
+      <c r="A26" s="245"/>
+      <c r="B26" s="220"/>
       <c r="C26" s="191"/>
-      <c r="D26" s="131" t="s">
+      <c r="D26" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="131"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="131" t="s">
+      <c r="E26" s="136"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="136" t="s">
         <v>193</v>
       </c>
-      <c r="L26" s="142" t="s">
+      <c r="L26" s="147" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="179"/>
-      <c r="B27" s="198"/>
-      <c r="C27" s="39" t="s">
+      <c r="A27" s="245"/>
+      <c r="B27" s="220"/>
+      <c r="C27" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="149" t="s">
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="33" t="s">
+      <c r="L27" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="179"/>
-      <c r="B28" s="198"/>
-      <c r="C28" s="190" t="s">
+      <c r="A28" s="245"/>
+      <c r="B28" s="220"/>
+      <c r="C28" s="189" t="s">
         <v>176</v>
       </c>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="176"/>
-      <c r="K28" s="169" t="s">
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="221"/>
+      <c r="J28" s="221"/>
+      <c r="K28" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="165" t="s">
+      <c r="L28" s="167" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="179"/>
-      <c r="B29" s="198"/>
+      <c r="A29" s="245"/>
+      <c r="B29" s="220"/>
       <c r="C29" s="191"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="167"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="228"/>
+      <c r="J29" s="228"/>
+      <c r="K29" s="174"/>
+      <c r="L29" s="168"/>
     </row>
     <row r="30" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="179"/>
-      <c r="B30" s="198"/>
-      <c r="C30" s="41" t="s">
+      <c r="A30" s="245"/>
+      <c r="B30" s="220"/>
+      <c r="C30" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="149" t="s">
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="154" t="s">
         <v>194</v>
       </c>
-      <c r="L30" s="33" t="s">
+      <c r="L30" s="36" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="179"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="126" t="s">
+      <c r="A31" s="245"/>
+      <c r="B31" s="220"/>
+      <c r="C31" s="131" t="s">
         <v>260</v>
       </c>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="149" t="s">
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="33" t="s">
+      <c r="L31" s="36" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="179"/>
-      <c r="B32" s="198"/>
-      <c r="C32" s="39" t="s">
+      <c r="A32" s="245"/>
+      <c r="B32" s="220"/>
+      <c r="C32" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="149" t="s">
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="L32" s="33" t="s">
+      <c r="L32" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="179"/>
-      <c r="B33" s="198"/>
-      <c r="C33" s="190" t="s">
+      <c r="A33" s="245"/>
+      <c r="B33" s="220"/>
+      <c r="C33" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="169"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="176"/>
-      <c r="K33" s="169" t="s">
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="221"/>
+      <c r="J33" s="221"/>
+      <c r="K33" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="L33" s="216" t="s">
+      <c r="L33" s="239" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="179"/>
-      <c r="B34" s="198"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="163"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="162"/>
-      <c r="H34" s="162"/>
-      <c r="I34" s="215"/>
-      <c r="J34" s="215"/>
-      <c r="K34" s="163"/>
-      <c r="L34" s="217"/>
+      <c r="A34" s="245"/>
+      <c r="B34" s="220"/>
+      <c r="C34" s="190"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="169"/>
+      <c r="G34" s="169"/>
+      <c r="H34" s="169"/>
+      <c r="I34" s="238"/>
+      <c r="J34" s="238"/>
+      <c r="K34" s="172"/>
+      <c r="L34" s="203"/>
     </row>
     <row r="35" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="179"/>
-      <c r="B35" s="198"/>
+      <c r="A35" s="245"/>
+      <c r="B35" s="220"/>
       <c r="C35" s="191"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="170"/>
-      <c r="L35" s="218"/>
+      <c r="D35" s="174"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="185"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="228"/>
+      <c r="J35" s="228"/>
+      <c r="K35" s="174"/>
+      <c r="L35" s="240"/>
     </row>
     <row r="36" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="179"/>
-      <c r="B36" s="198"/>
-      <c r="C36" s="39" t="s">
+      <c r="A36" s="245"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="149" t="s">
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="154" t="s">
         <v>241</v>
       </c>
-      <c r="L36" s="43" t="s">
+      <c r="L36" s="46" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="179"/>
-      <c r="B37" s="198"/>
-      <c r="C37" s="200" t="s">
+      <c r="A37" s="245"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="258" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="194"/>
-      <c r="E37" s="196"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
-      <c r="K37" s="169" t="s">
+      <c r="D37" s="177"/>
+      <c r="E37" s="192"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="181"/>
+      <c r="I37" s="181"/>
+      <c r="J37" s="181"/>
+      <c r="K37" s="173" t="s">
         <v>195</v>
       </c>
-      <c r="L37" s="165" t="s">
+      <c r="L37" s="167" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="179"/>
-      <c r="B38" s="198"/>
-      <c r="C38" s="200"/>
-      <c r="D38" s="201"/>
-      <c r="E38" s="168"/>
-      <c r="F38" s="162"/>
-      <c r="G38" s="162"/>
-      <c r="H38" s="162"/>
-      <c r="I38" s="162"/>
-      <c r="J38" s="162"/>
-      <c r="K38" s="163"/>
-      <c r="L38" s="164"/>
+      <c r="A38" s="245"/>
+      <c r="B38" s="220"/>
+      <c r="C38" s="258"/>
+      <c r="D38" s="178"/>
+      <c r="E38" s="260"/>
+      <c r="F38" s="169"/>
+      <c r="G38" s="169"/>
+      <c r="H38" s="169"/>
+      <c r="I38" s="169"/>
+      <c r="J38" s="169"/>
+      <c r="K38" s="172"/>
+      <c r="L38" s="170"/>
     </row>
     <row r="39" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="179"/>
-      <c r="B39" s="198"/>
-      <c r="C39" s="200"/>
-      <c r="D39" s="202"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="172"/>
-      <c r="K39" s="170"/>
-      <c r="L39" s="167"/>
+      <c r="A39" s="245"/>
+      <c r="B39" s="220"/>
+      <c r="C39" s="258"/>
+      <c r="D39" s="259"/>
+      <c r="E39" s="193"/>
+      <c r="F39" s="185"/>
+      <c r="G39" s="185"/>
+      <c r="H39" s="185"/>
+      <c r="I39" s="185"/>
+      <c r="J39" s="185"/>
+      <c r="K39" s="174"/>
+      <c r="L39" s="168"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="179"/>
-      <c r="B40" s="198"/>
-      <c r="C40" s="209" t="s">
+      <c r="A40" s="245"/>
+      <c r="B40" s="220"/>
+      <c r="C40" s="233" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="211"/>
-      <c r="E40" s="213"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="256"/>
-      <c r="J40" s="171"/>
-      <c r="K40" s="169" t="s">
+      <c r="D40" s="235"/>
+      <c r="E40" s="237"/>
+      <c r="F40" s="181"/>
+      <c r="G40" s="181"/>
+      <c r="H40" s="181"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="181"/>
+      <c r="K40" s="173" t="s">
         <v>242</v>
       </c>
-      <c r="L40" s="127" t="s">
+      <c r="L40" s="132" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="179"/>
-      <c r="B41" s="198"/>
-      <c r="C41" s="210"/>
-      <c r="D41" s="212"/>
-      <c r="E41" s="214"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="249"/>
-      <c r="J41" s="172"/>
-      <c r="K41" s="170"/>
-      <c r="L41" s="151" t="s">
+      <c r="A41" s="245"/>
+      <c r="B41" s="220"/>
+      <c r="C41" s="234"/>
+      <c r="D41" s="236"/>
+      <c r="E41" s="226"/>
+      <c r="F41" s="185"/>
+      <c r="G41" s="185"/>
+      <c r="H41" s="185"/>
+      <c r="I41" s="176"/>
+      <c r="J41" s="185"/>
+      <c r="K41" s="174"/>
+      <c r="L41" s="156" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="179"/>
-      <c r="B42" s="198"/>
-      <c r="C42" s="243" t="s">
+      <c r="A42" s="245"/>
+      <c r="B42" s="220"/>
+      <c r="C42" s="196" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="133" t="s">
+      <c r="D42" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="130"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
-      <c r="K42" s="130" t="s">
+      <c r="E42" s="135"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="151"/>
+      <c r="K42" s="135" t="s">
         <v>244</v>
       </c>
-      <c r="L42" s="127" t="s">
+      <c r="L42" s="132" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="179"/>
-      <c r="B43" s="198"/>
-      <c r="C43" s="244"/>
-      <c r="D43" s="201" t="s">
+      <c r="A43" s="245"/>
+      <c r="B43" s="220"/>
+      <c r="C43" s="197"/>
+      <c r="D43" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="163"/>
-      <c r="F43" s="162"/>
-      <c r="G43" s="162"/>
-      <c r="H43" s="162"/>
-      <c r="I43" s="162"/>
-      <c r="J43" s="162"/>
-      <c r="K43" s="163" t="s">
+      <c r="E43" s="172"/>
+      <c r="F43" s="169"/>
+      <c r="G43" s="169"/>
+      <c r="H43" s="169"/>
+      <c r="I43" s="169"/>
+      <c r="J43" s="169"/>
+      <c r="K43" s="172" t="s">
         <v>246</v>
       </c>
-      <c r="L43" s="164" t="s">
+      <c r="L43" s="170" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="179"/>
-      <c r="B44" s="198"/>
-      <c r="C44" s="244"/>
-      <c r="D44" s="204"/>
-      <c r="E44" s="163"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="162"/>
-      <c r="K44" s="163"/>
-      <c r="L44" s="164"/>
+      <c r="A44" s="245"/>
+      <c r="B44" s="220"/>
+      <c r="C44" s="197"/>
+      <c r="D44" s="179"/>
+      <c r="E44" s="172"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="169"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="172"/>
+      <c r="L44" s="170"/>
     </row>
     <row r="45" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="179"/>
-      <c r="B45" s="198"/>
-      <c r="C45" s="244"/>
-      <c r="D45" s="195" t="s">
+      <c r="A45" s="245"/>
+      <c r="B45" s="220"/>
+      <c r="C45" s="197"/>
+      <c r="D45" s="194" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="239" t="s">
+      <c r="E45" s="224" t="s">
         <v>55</v>
       </c>
-      <c r="F45" s="162"/>
-      <c r="G45" s="162"/>
-      <c r="H45" s="162"/>
-      <c r="I45" s="162"/>
-      <c r="J45" s="162"/>
-      <c r="K45" s="163" t="s">
+      <c r="F45" s="169"/>
+      <c r="G45" s="169"/>
+      <c r="H45" s="169"/>
+      <c r="I45" s="169"/>
+      <c r="J45" s="169"/>
+      <c r="K45" s="172" t="s">
         <v>266</v>
       </c>
-      <c r="L45" s="128" t="s">
+      <c r="L45" s="133" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="179"/>
-      <c r="B46" s="198"/>
-      <c r="C46" s="244"/>
-      <c r="D46" s="242"/>
-      <c r="E46" s="239"/>
-      <c r="F46" s="162"/>
-      <c r="G46" s="162"/>
-      <c r="H46" s="162"/>
-      <c r="I46" s="162"/>
-      <c r="J46" s="162"/>
-      <c r="K46" s="163"/>
-      <c r="L46" s="145" t="s">
+      <c r="A46" s="245"/>
+      <c r="B46" s="220"/>
+      <c r="C46" s="197"/>
+      <c r="D46" s="195"/>
+      <c r="E46" s="224"/>
+      <c r="F46" s="169"/>
+      <c r="G46" s="169"/>
+      <c r="H46" s="169"/>
+      <c r="I46" s="169"/>
+      <c r="J46" s="169"/>
+      <c r="K46" s="172"/>
+      <c r="L46" s="150" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="179"/>
-      <c r="B47" s="198"/>
-      <c r="C47" s="244"/>
-      <c r="D47" s="242"/>
-      <c r="E47" s="168" t="s">
+      <c r="A47" s="245"/>
+      <c r="B47" s="220"/>
+      <c r="C47" s="197"/>
+      <c r="D47" s="195"/>
+      <c r="E47" s="260" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="162"/>
-      <c r="G47" s="162"/>
-      <c r="H47" s="162"/>
-      <c r="I47" s="162"/>
-      <c r="J47" s="162"/>
-      <c r="K47" s="163" t="s">
+      <c r="F47" s="169"/>
+      <c r="G47" s="169"/>
+      <c r="H47" s="169"/>
+      <c r="I47" s="169"/>
+      <c r="J47" s="169"/>
+      <c r="K47" s="172" t="s">
         <v>59</v>
       </c>
-      <c r="L47" s="128" t="s">
+      <c r="L47" s="133" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="179"/>
-      <c r="B48" s="198"/>
-      <c r="C48" s="244"/>
-      <c r="D48" s="242"/>
-      <c r="E48" s="168"/>
-      <c r="F48" s="162"/>
-      <c r="G48" s="162"/>
-      <c r="H48" s="162"/>
-      <c r="I48" s="162"/>
-      <c r="J48" s="162"/>
-      <c r="K48" s="163"/>
-      <c r="L48" s="145" t="s">
+      <c r="A48" s="245"/>
+      <c r="B48" s="220"/>
+      <c r="C48" s="197"/>
+      <c r="D48" s="195"/>
+      <c r="E48" s="260"/>
+      <c r="F48" s="169"/>
+      <c r="G48" s="169"/>
+      <c r="H48" s="169"/>
+      <c r="I48" s="169"/>
+      <c r="J48" s="169"/>
+      <c r="K48" s="172"/>
+      <c r="L48" s="150" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="179"/>
-      <c r="B49" s="198"/>
-      <c r="C49" s="244"/>
-      <c r="D49" s="194"/>
-      <c r="E49" s="154" t="s">
+      <c r="A49" s="245"/>
+      <c r="B49" s="220"/>
+      <c r="C49" s="197"/>
+      <c r="D49" s="177"/>
+      <c r="E49" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="148" t="s">
+      <c r="F49" s="129"/>
+      <c r="G49" s="129"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="L49" s="98" t="s">
+      <c r="L49" s="101" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="179"/>
-      <c r="B50" s="198"/>
-      <c r="C50" s="245"/>
-      <c r="D50" s="99" t="s">
+      <c r="A50" s="245"/>
+      <c r="B50" s="220"/>
+      <c r="C50" s="198"/>
+      <c r="D50" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="44"/>
-      <c r="F50" s="138"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="138"/>
-      <c r="I50" s="138"/>
-      <c r="J50" s="138"/>
-      <c r="K50" s="131" t="s">
+      <c r="E50" s="47"/>
+      <c r="F50" s="143"/>
+      <c r="G50" s="143"/>
+      <c r="H50" s="143"/>
+      <c r="I50" s="143"/>
+      <c r="J50" s="143"/>
+      <c r="K50" s="136" t="s">
         <v>245</v>
       </c>
-      <c r="L50" s="142" t="s">
+      <c r="L50" s="147" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="179"/>
-      <c r="B51" s="198"/>
-      <c r="C51" s="246" t="s">
+      <c r="A51" s="245"/>
+      <c r="B51" s="220"/>
+      <c r="C51" s="199" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="133" t="s">
+      <c r="D51" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="45"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="136"/>
-      <c r="J51" s="136"/>
-      <c r="K51" s="130" t="s">
+      <c r="E51" s="48"/>
+      <c r="F51" s="141"/>
+      <c r="G51" s="141"/>
+      <c r="H51" s="141"/>
+      <c r="I51" s="141"/>
+      <c r="J51" s="141"/>
+      <c r="K51" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="L51" s="127" t="s">
+      <c r="L51" s="132" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="179"/>
-      <c r="B52" s="198"/>
-      <c r="C52" s="247"/>
-      <c r="D52" s="134" t="s">
+      <c r="A52" s="245"/>
+      <c r="B52" s="220"/>
+      <c r="C52" s="200"/>
+      <c r="D52" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="129"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="132"/>
-      <c r="K52" s="129" t="s">
+      <c r="E52" s="134"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="137"/>
+      <c r="K52" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="L52" s="128" t="s">
+      <c r="L52" s="133" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="179"/>
-      <c r="B53" s="198"/>
-      <c r="C53" s="247"/>
-      <c r="D53" s="195" t="s">
+      <c r="A53" s="245"/>
+      <c r="B53" s="220"/>
+      <c r="C53" s="200"/>
+      <c r="D53" s="194" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="163" t="s">
+      <c r="E53" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="F53" s="162"/>
-      <c r="G53" s="162"/>
-      <c r="H53" s="162"/>
-      <c r="I53" s="162"/>
-      <c r="J53" s="162"/>
-      <c r="K53" s="163" t="s">
+      <c r="F53" s="169"/>
+      <c r="G53" s="169"/>
+      <c r="H53" s="169"/>
+      <c r="I53" s="169"/>
+      <c r="J53" s="169"/>
+      <c r="K53" s="172" t="s">
         <v>267</v>
       </c>
-      <c r="L53" s="164" t="s">
+      <c r="L53" s="170" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="179"/>
-      <c r="B54" s="198"/>
-      <c r="C54" s="247"/>
-      <c r="D54" s="242"/>
-      <c r="E54" s="163"/>
-      <c r="F54" s="162"/>
-      <c r="G54" s="162"/>
-      <c r="H54" s="162"/>
-      <c r="I54" s="162"/>
-      <c r="J54" s="162"/>
-      <c r="K54" s="163"/>
-      <c r="L54" s="164"/>
+      <c r="A54" s="245"/>
+      <c r="B54" s="220"/>
+      <c r="C54" s="200"/>
+      <c r="D54" s="195"/>
+      <c r="E54" s="172"/>
+      <c r="F54" s="169"/>
+      <c r="G54" s="169"/>
+      <c r="H54" s="169"/>
+      <c r="I54" s="169"/>
+      <c r="J54" s="169"/>
+      <c r="K54" s="172"/>
+      <c r="L54" s="170"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="179"/>
-      <c r="B55" s="198"/>
-      <c r="C55" s="247"/>
-      <c r="D55" s="242"/>
-      <c r="E55" s="168" t="s">
+      <c r="A55" s="245"/>
+      <c r="B55" s="220"/>
+      <c r="C55" s="200"/>
+      <c r="D55" s="195"/>
+      <c r="E55" s="260" t="s">
         <v>58</v>
       </c>
-      <c r="F55" s="162"/>
-      <c r="G55" s="162"/>
-      <c r="H55" s="162"/>
-      <c r="I55" s="162"/>
-      <c r="J55" s="162"/>
-      <c r="K55" s="163" t="s">
+      <c r="F55" s="169"/>
+      <c r="G55" s="169"/>
+      <c r="H55" s="169"/>
+      <c r="I55" s="169"/>
+      <c r="J55" s="169"/>
+      <c r="K55" s="172" t="s">
         <v>59</v>
       </c>
-      <c r="L55" s="164" t="s">
+      <c r="L55" s="170" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="179"/>
-      <c r="B56" s="198"/>
-      <c r="C56" s="247"/>
-      <c r="D56" s="242"/>
-      <c r="E56" s="168"/>
-      <c r="F56" s="162"/>
-      <c r="G56" s="162"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="162"/>
-      <c r="K56" s="163"/>
-      <c r="L56" s="164"/>
+      <c r="A56" s="245"/>
+      <c r="B56" s="220"/>
+      <c r="C56" s="200"/>
+      <c r="D56" s="195"/>
+      <c r="E56" s="260"/>
+      <c r="F56" s="169"/>
+      <c r="G56" s="169"/>
+      <c r="H56" s="169"/>
+      <c r="I56" s="169"/>
+      <c r="J56" s="169"/>
+      <c r="K56" s="172"/>
+      <c r="L56" s="170"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="179"/>
-      <c r="B57" s="198"/>
-      <c r="C57" s="247"/>
-      <c r="D57" s="194"/>
-      <c r="E57" s="154" t="s">
+      <c r="A57" s="245"/>
+      <c r="B57" s="220"/>
+      <c r="C57" s="200"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="F57" s="124"/>
-      <c r="G57" s="124"/>
-      <c r="H57" s="124"/>
-      <c r="I57" s="124"/>
-      <c r="J57" s="124"/>
-      <c r="K57" s="148" t="s">
+      <c r="F57" s="129"/>
+      <c r="G57" s="129"/>
+      <c r="H57" s="129"/>
+      <c r="I57" s="129"/>
+      <c r="J57" s="129"/>
+      <c r="K57" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="L57" s="156" t="s">
+      <c r="L57" s="161" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="179"/>
-      <c r="B58" s="198"/>
-      <c r="C58" s="248"/>
-      <c r="D58" s="99" t="s">
+      <c r="A58" s="245"/>
+      <c r="B58" s="220"/>
+      <c r="C58" s="201"/>
+      <c r="D58" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="141"/>
-      <c r="F58" s="138"/>
-      <c r="G58" s="138"/>
-      <c r="H58" s="138"/>
-      <c r="I58" s="138"/>
-      <c r="J58" s="138"/>
-      <c r="K58" s="131" t="s">
+      <c r="E58" s="146"/>
+      <c r="F58" s="143"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="143"/>
+      <c r="I58" s="143"/>
+      <c r="J58" s="143"/>
+      <c r="K58" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="L58" s="142" t="s">
+      <c r="L58" s="147" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="179"/>
-      <c r="B59" s="198"/>
-      <c r="C59" s="185" t="s">
+      <c r="A59" s="245"/>
+      <c r="B59" s="220"/>
+      <c r="C59" s="242" t="s">
         <v>230</v>
       </c>
-      <c r="D59" s="185" t="s">
+      <c r="D59" s="242" t="s">
         <v>229</v>
       </c>
-      <c r="E59" s="194" t="s">
+      <c r="E59" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="F59" s="251"/>
-      <c r="G59" s="171"/>
-      <c r="H59" s="171"/>
-      <c r="I59" s="171"/>
-      <c r="J59" s="171"/>
-      <c r="K59" s="169" t="s">
+      <c r="F59" s="180"/>
+      <c r="G59" s="181"/>
+      <c r="H59" s="181"/>
+      <c r="I59" s="181"/>
+      <c r="J59" s="181"/>
+      <c r="K59" s="173" t="s">
         <v>76</v>
       </c>
-      <c r="L59" s="165" t="s">
+      <c r="L59" s="167" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="179"/>
-      <c r="B60" s="198"/>
-      <c r="C60" s="186"/>
-      <c r="D60" s="186"/>
-      <c r="E60" s="201"/>
-      <c r="F60" s="252"/>
-      <c r="G60" s="162"/>
-      <c r="H60" s="162"/>
-      <c r="I60" s="162"/>
-      <c r="J60" s="162"/>
-      <c r="K60" s="163"/>
-      <c r="L60" s="164"/>
+      <c r="A60" s="245"/>
+      <c r="B60" s="220"/>
+      <c r="C60" s="243"/>
+      <c r="D60" s="243"/>
+      <c r="E60" s="178"/>
+      <c r="F60" s="171"/>
+      <c r="G60" s="169"/>
+      <c r="H60" s="169"/>
+      <c r="I60" s="169"/>
+      <c r="J60" s="169"/>
+      <c r="K60" s="172"/>
+      <c r="L60" s="170"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="179"/>
-      <c r="B61" s="198"/>
-      <c r="C61" s="186"/>
-      <c r="D61" s="188"/>
-      <c r="E61" s="204" t="s">
+      <c r="A61" s="245"/>
+      <c r="B61" s="220"/>
+      <c r="C61" s="243"/>
+      <c r="D61" s="252"/>
+      <c r="E61" s="179" t="s">
         <v>74</v>
       </c>
-      <c r="F61" s="252"/>
-      <c r="G61" s="252"/>
-      <c r="H61" s="252"/>
-      <c r="I61" s="162"/>
-      <c r="J61" s="162"/>
-      <c r="K61" s="163" t="s">
+      <c r="F61" s="171"/>
+      <c r="G61" s="171"/>
+      <c r="H61" s="171"/>
+      <c r="I61" s="169"/>
+      <c r="J61" s="169"/>
+      <c r="K61" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="L61" s="164" t="s">
+      <c r="L61" s="170" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="179"/>
-      <c r="B62" s="198"/>
-      <c r="C62" s="186"/>
-      <c r="D62" s="188"/>
-      <c r="E62" s="201"/>
-      <c r="F62" s="252"/>
-      <c r="G62" s="252"/>
-      <c r="H62" s="252"/>
-      <c r="I62" s="162"/>
-      <c r="J62" s="162"/>
-      <c r="K62" s="163"/>
-      <c r="L62" s="164"/>
+      <c r="A62" s="245"/>
+      <c r="B62" s="220"/>
+      <c r="C62" s="243"/>
+      <c r="D62" s="252"/>
+      <c r="E62" s="178"/>
+      <c r="F62" s="171"/>
+      <c r="G62" s="171"/>
+      <c r="H62" s="171"/>
+      <c r="I62" s="169"/>
+      <c r="J62" s="169"/>
+      <c r="K62" s="172"/>
+      <c r="L62" s="170"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="179"/>
-      <c r="B63" s="198"/>
-      <c r="C63" s="186"/>
-      <c r="D63" s="188"/>
-      <c r="E63" s="204" t="s">
+      <c r="A63" s="245"/>
+      <c r="B63" s="220"/>
+      <c r="C63" s="243"/>
+      <c r="D63" s="252"/>
+      <c r="E63" s="179" t="s">
         <v>261</v>
       </c>
-      <c r="F63" s="252"/>
-      <c r="G63" s="252"/>
-      <c r="H63" s="253"/>
-      <c r="I63" s="162"/>
-      <c r="J63" s="162"/>
-      <c r="K63" s="163" t="s">
+      <c r="F63" s="171"/>
+      <c r="G63" s="171"/>
+      <c r="H63" s="182"/>
+      <c r="I63" s="169"/>
+      <c r="J63" s="169"/>
+      <c r="K63" s="172" t="s">
         <v>262</v>
       </c>
-      <c r="L63" s="217" t="s">
+      <c r="L63" s="203" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="179"/>
-      <c r="B64" s="198"/>
-      <c r="C64" s="186"/>
-      <c r="D64" s="188"/>
-      <c r="E64" s="204"/>
-      <c r="F64" s="252"/>
-      <c r="G64" s="252"/>
-      <c r="H64" s="254"/>
-      <c r="I64" s="162"/>
-      <c r="J64" s="162"/>
-      <c r="K64" s="163"/>
-      <c r="L64" s="217"/>
+      <c r="A64" s="245"/>
+      <c r="B64" s="220"/>
+      <c r="C64" s="243"/>
+      <c r="D64" s="252"/>
+      <c r="E64" s="179"/>
+      <c r="F64" s="171"/>
+      <c r="G64" s="171"/>
+      <c r="H64" s="183"/>
+      <c r="I64" s="169"/>
+      <c r="J64" s="169"/>
+      <c r="K64" s="172"/>
+      <c r="L64" s="203"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="179"/>
-      <c r="B65" s="198"/>
-      <c r="C65" s="186"/>
-      <c r="D65" s="188"/>
-      <c r="E65" s="204"/>
-      <c r="F65" s="252"/>
-      <c r="G65" s="252"/>
-      <c r="H65" s="255"/>
-      <c r="I65" s="162"/>
-      <c r="J65" s="162"/>
-      <c r="K65" s="163"/>
-      <c r="L65" s="217"/>
+      <c r="A65" s="245"/>
+      <c r="B65" s="220"/>
+      <c r="C65" s="243"/>
+      <c r="D65" s="252"/>
+      <c r="E65" s="179"/>
+      <c r="F65" s="171"/>
+      <c r="G65" s="171"/>
+      <c r="H65" s="184"/>
+      <c r="I65" s="169"/>
+      <c r="J65" s="169"/>
+      <c r="K65" s="172"/>
+      <c r="L65" s="203"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="179"/>
-      <c r="B66" s="198"/>
-      <c r="C66" s="186"/>
-      <c r="D66" s="188"/>
-      <c r="E66" s="46" t="s">
+      <c r="A66" s="245"/>
+      <c r="B66" s="220"/>
+      <c r="C66" s="243"/>
+      <c r="D66" s="252"/>
+      <c r="E66" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="132"/>
-      <c r="K66" s="129" t="s">
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="137"/>
+      <c r="K66" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="L66" s="128" t="s">
+      <c r="L66" s="133" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="179"/>
-      <c r="B67" s="198"/>
-      <c r="C67" s="186"/>
-      <c r="D67" s="188"/>
-      <c r="E67" s="134" t="s">
+      <c r="A67" s="245"/>
+      <c r="B67" s="220"/>
+      <c r="C67" s="243"/>
+      <c r="D67" s="252"/>
+      <c r="E67" s="139" t="s">
         <v>231</v>
       </c>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="132"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="132"/>
-      <c r="K67" s="129" t="s">
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="137"/>
+      <c r="J67" s="137"/>
+      <c r="K67" s="134" t="s">
         <v>196</v>
       </c>
-      <c r="L67" s="128" t="s">
+      <c r="L67" s="133" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="179"/>
-      <c r="B68" s="198"/>
-      <c r="C68" s="186"/>
-      <c r="D68" s="188"/>
-      <c r="E68" s="135" t="s">
+      <c r="A68" s="245"/>
+      <c r="B68" s="220"/>
+      <c r="C68" s="243"/>
+      <c r="D68" s="252"/>
+      <c r="E68" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="132"/>
-      <c r="J68" s="132"/>
-      <c r="K68" s="129" t="s">
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="137"/>
+      <c r="I68" s="137"/>
+      <c r="J68" s="137"/>
+      <c r="K68" s="134" t="s">
         <v>250</v>
       </c>
-      <c r="L68" s="128" t="s">
+      <c r="L68" s="133" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="179"/>
-      <c r="B69" s="198"/>
-      <c r="C69" s="186"/>
-      <c r="D69" s="188"/>
-      <c r="E69" s="46" t="s">
+      <c r="A69" s="245"/>
+      <c r="B69" s="220"/>
+      <c r="C69" s="243"/>
+      <c r="D69" s="252"/>
+      <c r="E69" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="132"/>
-      <c r="I69" s="132"/>
-      <c r="J69" s="132"/>
-      <c r="K69" s="129" t="s">
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="137"/>
+      <c r="I69" s="137"/>
+      <c r="J69" s="137"/>
+      <c r="K69" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="L69" s="128" t="s">
+      <c r="L69" s="133" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="179"/>
-      <c r="B70" s="198"/>
-      <c r="C70" s="186"/>
-      <c r="D70" s="188"/>
-      <c r="E70" s="139" t="s">
+      <c r="A70" s="245"/>
+      <c r="B70" s="220"/>
+      <c r="C70" s="243"/>
+      <c r="D70" s="252"/>
+      <c r="E70" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="F70" s="48"/>
-      <c r="G70" s="132"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="150"/>
-      <c r="J70" s="150"/>
-      <c r="K70" s="129" t="s">
+      <c r="F70" s="51"/>
+      <c r="G70" s="137"/>
+      <c r="H70" s="137"/>
+      <c r="I70" s="155"/>
+      <c r="J70" s="155"/>
+      <c r="K70" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="L70" s="128" t="s">
+      <c r="L70" s="133" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="179"/>
-      <c r="B71" s="198"/>
-      <c r="C71" s="186"/>
-      <c r="D71" s="189"/>
-      <c r="E71" s="49" t="s">
+      <c r="A71" s="245"/>
+      <c r="B71" s="220"/>
+      <c r="C71" s="243"/>
+      <c r="D71" s="253"/>
+      <c r="E71" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="F71" s="137"/>
-      <c r="G71" s="124"/>
-      <c r="H71" s="124"/>
-      <c r="I71" s="147"/>
-      <c r="J71" s="147"/>
-      <c r="K71" s="148" t="s">
+      <c r="F71" s="142"/>
+      <c r="G71" s="129"/>
+      <c r="H71" s="129"/>
+      <c r="I71" s="152"/>
+      <c r="J71" s="152"/>
+      <c r="K71" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="L71" s="156" t="s">
+      <c r="L71" s="161" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="179"/>
-      <c r="B72" s="198"/>
-      <c r="C72" s="50" t="s">
+      <c r="A72" s="245"/>
+      <c r="B72" s="220"/>
+      <c r="C72" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D72" s="51"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="52" t="s">
+      <c r="D72" s="54"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="57"/>
+      <c r="K72" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="L72" s="55" t="s">
+      <c r="L72" s="58" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="179"/>
-      <c r="B73" s="198"/>
-      <c r="C73" s="240" t="s">
+      <c r="A73" s="245"/>
+      <c r="B73" s="220"/>
+      <c r="C73" s="187" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="133" t="s">
+      <c r="D73" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="130"/>
-      <c r="F73" s="136"/>
-      <c r="G73" s="136"/>
-      <c r="H73" s="136"/>
-      <c r="I73" s="136"/>
-      <c r="J73" s="146"/>
-      <c r="K73" s="130" t="s">
+      <c r="E73" s="135"/>
+      <c r="F73" s="141"/>
+      <c r="G73" s="141"/>
+      <c r="H73" s="141"/>
+      <c r="I73" s="141"/>
+      <c r="J73" s="151"/>
+      <c r="K73" s="135" t="s">
         <v>209</v>
       </c>
-      <c r="L73" s="38" t="s">
+      <c r="L73" s="41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="179"/>
-      <c r="B74" s="198"/>
-      <c r="C74" s="241"/>
-      <c r="D74" s="126" t="s">
+      <c r="A74" s="245"/>
+      <c r="B74" s="220"/>
+      <c r="C74" s="188"/>
+      <c r="D74" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="149"/>
-      <c r="F74" s="125"/>
-      <c r="G74" s="125"/>
-      <c r="H74" s="125"/>
-      <c r="I74" s="125"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="149" t="s">
+      <c r="E74" s="154"/>
+      <c r="F74" s="130"/>
+      <c r="G74" s="130"/>
+      <c r="H74" s="130"/>
+      <c r="I74" s="130"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="154" t="s">
         <v>268</v>
       </c>
-      <c r="L74" s="33" t="s">
+      <c r="L74" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="179"/>
-      <c r="B75" s="198"/>
-      <c r="C75" s="187" t="s">
+      <c r="A75" s="245"/>
+      <c r="B75" s="220"/>
+      <c r="C75" s="251" t="s">
         <v>237</v>
       </c>
-      <c r="D75" s="95" t="s">
+      <c r="D75" s="98" t="s">
         <v>247</v>
       </c>
-      <c r="E75" s="32" t="s">
+      <c r="E75" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="125"/>
-      <c r="G75" s="125"/>
-      <c r="H75" s="125"/>
-      <c r="I75" s="125"/>
-      <c r="J75" s="125"/>
-      <c r="K75" s="149" t="s">
+      <c r="F75" s="130"/>
+      <c r="G75" s="130"/>
+      <c r="H75" s="130"/>
+      <c r="I75" s="130"/>
+      <c r="J75" s="130"/>
+      <c r="K75" s="154" t="s">
         <v>269</v>
       </c>
-      <c r="L75" s="33" t="s">
+      <c r="L75" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="179"/>
-      <c r="B76" s="198"/>
-      <c r="C76" s="188"/>
-      <c r="D76" s="96" t="s">
+      <c r="A76" s="245"/>
+      <c r="B76" s="220"/>
+      <c r="C76" s="252"/>
+      <c r="D76" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="E76" s="56"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="59" t="s">
+      <c r="E76" s="59"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="L76" s="127" t="s">
+      <c r="L76" s="132" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="179"/>
-      <c r="B77" s="198"/>
-      <c r="C77" s="188"/>
-      <c r="D77" s="60" t="s">
+      <c r="A77" s="245"/>
+      <c r="B77" s="220"/>
+      <c r="C77" s="252"/>
+      <c r="D77" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="E77" s="61"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="63"/>
-      <c r="K77" s="64" t="s">
+      <c r="E77" s="64"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="L77" s="156" t="s">
+      <c r="L77" s="161" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="179"/>
-      <c r="B78" s="198"/>
-      <c r="C78" s="189"/>
-      <c r="D78" s="65" t="s">
+      <c r="A78" s="245"/>
+      <c r="B78" s="220"/>
+      <c r="C78" s="253"/>
+      <c r="D78" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="E78" s="66"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="68"/>
-      <c r="K78" s="69" t="s">
+      <c r="E78" s="69"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="70"/>
+      <c r="J78" s="71"/>
+      <c r="K78" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="L78" s="142" t="s">
+      <c r="L78" s="147" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="179"/>
-      <c r="B79" s="198"/>
-      <c r="C79" s="181" t="s">
+      <c r="A79" s="245"/>
+      <c r="B79" s="220"/>
+      <c r="C79" s="247" t="s">
         <v>101</v>
       </c>
-      <c r="D79" s="70" t="s">
+      <c r="D79" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="E79" s="71"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="72"/>
-      <c r="I79" s="72"/>
-      <c r="J79" s="73"/>
-      <c r="K79" s="74" t="s">
+      <c r="E79" s="74"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="75"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="76"/>
+      <c r="K79" s="77" t="s">
         <v>272</v>
       </c>
-      <c r="L79" s="75" t="s">
+      <c r="L79" s="78" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="179"/>
-      <c r="B80" s="198"/>
-      <c r="C80" s="182"/>
-      <c r="D80" s="153" t="s">
+      <c r="A80" s="245"/>
+      <c r="B80" s="220"/>
+      <c r="C80" s="248"/>
+      <c r="D80" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="61"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="62"/>
-      <c r="H80" s="62"/>
-      <c r="I80" s="62"/>
-      <c r="J80" s="63"/>
-      <c r="K80" s="64" t="s">
+      <c r="E80" s="64"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="66"/>
+      <c r="K80" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="L80" s="128" t="s">
+      <c r="L80" s="133" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="179"/>
-      <c r="B81" s="198"/>
-      <c r="C81" s="182"/>
-      <c r="D81" s="184" t="s">
+      <c r="A81" s="245"/>
+      <c r="B81" s="220"/>
+      <c r="C81" s="248"/>
+      <c r="D81" s="250" t="s">
         <v>54</v>
       </c>
-      <c r="E81" s="61" t="s">
+      <c r="E81" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="F81" s="62"/>
-      <c r="G81" s="62"/>
-      <c r="H81" s="62"/>
-      <c r="I81" s="62"/>
-      <c r="J81" s="63"/>
-      <c r="K81" s="64" t="s">
+      <c r="F81" s="65"/>
+      <c r="G81" s="65"/>
+      <c r="H81" s="65"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="67" t="s">
         <v>273</v>
       </c>
-      <c r="L81" s="128" t="s">
+      <c r="L81" s="133" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="179"/>
-      <c r="B82" s="198"/>
-      <c r="C82" s="182"/>
-      <c r="D82" s="184"/>
-      <c r="E82" s="76" t="s">
+      <c r="A82" s="245"/>
+      <c r="B82" s="220"/>
+      <c r="C82" s="248"/>
+      <c r="D82" s="250"/>
+      <c r="E82" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="62"/>
-      <c r="H82" s="62"/>
-      <c r="I82" s="62"/>
-      <c r="J82" s="63"/>
-      <c r="K82" s="64" t="s">
+      <c r="F82" s="65"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="65"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="L82" s="128" t="s">
+      <c r="L82" s="133" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="179"/>
-      <c r="B83" s="198"/>
-      <c r="C83" s="182"/>
-      <c r="D83" s="184"/>
-      <c r="E83" s="76" t="s">
+      <c r="A83" s="245"/>
+      <c r="B83" s="220"/>
+      <c r="C83" s="248"/>
+      <c r="D83" s="250"/>
+      <c r="E83" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="62"/>
-      <c r="I83" s="62"/>
-      <c r="J83" s="63"/>
-      <c r="K83" s="64" t="s">
+      <c r="F83" s="65"/>
+      <c r="G83" s="65"/>
+      <c r="H83" s="65"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="L83" s="128" t="s">
+      <c r="L83" s="133" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="179"/>
-      <c r="B84" s="198"/>
-      <c r="C84" s="182"/>
-      <c r="D84" s="153" t="s">
+      <c r="A84" s="245"/>
+      <c r="B84" s="220"/>
+      <c r="C84" s="248"/>
+      <c r="D84" s="158" t="s">
         <v>227</v>
       </c>
-      <c r="E84" s="61"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
-      <c r="H84" s="62"/>
-      <c r="I84" s="62"/>
-      <c r="J84" s="63"/>
-      <c r="K84" s="64" t="s">
+      <c r="E84" s="64"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="65"/>
+      <c r="I84" s="65"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="L84" s="156" t="s">
+      <c r="L84" s="161" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="179"/>
-      <c r="B85" s="198"/>
-      <c r="C85" s="182"/>
-      <c r="D85" s="153" t="s">
+      <c r="A85" s="245"/>
+      <c r="B85" s="220"/>
+      <c r="C85" s="248"/>
+      <c r="D85" s="158" t="s">
         <v>100</v>
       </c>
-      <c r="E85" s="61"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="62"/>
-      <c r="H85" s="62"/>
-      <c r="I85" s="62"/>
-      <c r="J85" s="63"/>
-      <c r="K85" s="64" t="s">
+      <c r="E85" s="64"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="67" t="s">
         <v>234</v>
       </c>
-      <c r="L85" s="160" t="s">
+      <c r="L85" s="165" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="179"/>
-      <c r="B86" s="198"/>
-      <c r="C86" s="183"/>
-      <c r="D86" s="153" t="s">
+      <c r="A86" s="245"/>
+      <c r="B86" s="220"/>
+      <c r="C86" s="249"/>
+      <c r="D86" s="158" t="s">
         <v>258</v>
       </c>
-      <c r="E86" s="77"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="78"/>
-      <c r="H86" s="78"/>
-      <c r="I86" s="78"/>
-      <c r="J86" s="78"/>
-      <c r="K86" s="79" t="s">
+      <c r="E86" s="80"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="81"/>
+      <c r="H86" s="81"/>
+      <c r="I86" s="81"/>
+      <c r="J86" s="81"/>
+      <c r="K86" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="L86" s="97" t="s">
+      <c r="L86" s="100" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="179"/>
-      <c r="B87" s="198"/>
-      <c r="C87" s="183"/>
-      <c r="D87" s="161" t="s">
+      <c r="A87" s="245"/>
+      <c r="B87" s="220"/>
+      <c r="C87" s="249"/>
+      <c r="D87" s="166" t="s">
         <v>276</v>
       </c>
-      <c r="E87" s="66"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="67"/>
-      <c r="J87" s="68"/>
-      <c r="K87" s="69" t="s">
+      <c r="E87" s="69"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="H87" s="70"/>
+      <c r="I87" s="70"/>
+      <c r="J87" s="71"/>
+      <c r="K87" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="L87" s="142" t="s">
+      <c r="L87" s="147" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="179"/>
-      <c r="B88" s="192" t="s">
+      <c r="A88" s="245"/>
+      <c r="B88" s="254" t="s">
         <v>72</v>
       </c>
-      <c r="C88" s="80" t="s">
+      <c r="C88" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="D88" s="81"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="83"/>
-      <c r="I88" s="83"/>
-      <c r="J88" s="83"/>
-      <c r="K88" s="74" t="s">
+      <c r="D88" s="84"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="86"/>
+      <c r="G88" s="86"/>
+      <c r="H88" s="86"/>
+      <c r="I88" s="86"/>
+      <c r="J88" s="86"/>
+      <c r="K88" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="L88" s="103" t="s">
+      <c r="L88" s="108" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="179"/>
-      <c r="B89" s="192"/>
-      <c r="C89" s="84" t="s">
+      <c r="A89" s="245"/>
+      <c r="B89" s="254"/>
+      <c r="C89" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="D89" s="85"/>
-      <c r="E89" s="86"/>
-      <c r="F89" s="87"/>
-      <c r="G89" s="87"/>
-      <c r="H89" s="87"/>
-      <c r="I89" s="87"/>
-      <c r="J89" s="87"/>
-      <c r="K89" s="64" t="s">
+      <c r="D89" s="88"/>
+      <c r="E89" s="89"/>
+      <c r="F89" s="90"/>
+      <c r="G89" s="90"/>
+      <c r="H89" s="90"/>
+      <c r="I89" s="90"/>
+      <c r="J89" s="90"/>
+      <c r="K89" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="L89" s="128" t="s">
+      <c r="L89" s="133" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="179"/>
-      <c r="B90" s="192"/>
-      <c r="C90" s="88" t="s">
+      <c r="A90" s="245"/>
+      <c r="B90" s="254"/>
+      <c r="C90" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="D90" s="89"/>
-      <c r="E90" s="90"/>
-      <c r="F90" s="91"/>
-      <c r="G90" s="91"/>
-      <c r="H90" s="91"/>
-      <c r="I90" s="91"/>
-      <c r="J90" s="91"/>
-      <c r="K90" s="92" t="s">
+      <c r="D90" s="92"/>
+      <c r="E90" s="93"/>
+      <c r="F90" s="94"/>
+      <c r="G90" s="94"/>
+      <c r="H90" s="94"/>
+      <c r="I90" s="94"/>
+      <c r="J90" s="94"/>
+      <c r="K90" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="L90" s="156" t="s">
+      <c r="L90" s="161" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="179"/>
-      <c r="B91" s="192"/>
-      <c r="C91" s="84" t="s">
+      <c r="A91" s="245"/>
+      <c r="B91" s="254"/>
+      <c r="C91" s="87" t="s">
         <v>210</v>
       </c>
-      <c r="D91" s="85"/>
-      <c r="E91" s="86"/>
-      <c r="F91" s="87"/>
-      <c r="G91" s="87"/>
-      <c r="H91" s="87"/>
-      <c r="I91" s="87"/>
-      <c r="J91" s="87"/>
-      <c r="K91" s="64" t="s">
+      <c r="D91" s="88"/>
+      <c r="E91" s="89"/>
+      <c r="F91" s="90"/>
+      <c r="G91" s="90"/>
+      <c r="H91" s="90"/>
+      <c r="I91" s="90"/>
+      <c r="J91" s="90"/>
+      <c r="K91" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="L91" s="128" t="s">
+      <c r="L91" s="133" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="179"/>
-      <c r="B92" s="192"/>
-      <c r="C92" s="84" t="s">
+      <c r="A92" s="245"/>
+      <c r="B92" s="254"/>
+      <c r="C92" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="D92" s="85"/>
-      <c r="E92" s="86"/>
-      <c r="F92" s="87"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="87"/>
-      <c r="I92" s="87"/>
-      <c r="J92" s="87"/>
-      <c r="K92" s="64" t="s">
+      <c r="D92" s="88"/>
+      <c r="E92" s="89"/>
+      <c r="F92" s="90"/>
+      <c r="G92" s="90"/>
+      <c r="H92" s="90"/>
+      <c r="I92" s="90"/>
+      <c r="J92" s="90"/>
+      <c r="K92" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="L92" s="128" t="s">
+      <c r="L92" s="133" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="180"/>
-      <c r="B93" s="193"/>
-      <c r="C93" s="104" t="s">
+      <c r="A93" s="246"/>
+      <c r="B93" s="255"/>
+      <c r="C93" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="D93" s="105"/>
-      <c r="E93" s="106"/>
-      <c r="F93" s="107"/>
-      <c r="G93" s="107"/>
-      <c r="H93" s="107"/>
-      <c r="I93" s="107"/>
-      <c r="J93" s="107"/>
-      <c r="K93" s="69" t="s">
+      <c r="D93" s="110"/>
+      <c r="E93" s="111"/>
+      <c r="F93" s="112"/>
+      <c r="G93" s="112"/>
+      <c r="H93" s="112"/>
+      <c r="I93" s="112"/>
+      <c r="J93" s="112"/>
+      <c r="K93" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="L93" s="142" t="s">
+      <c r="L93" s="147" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K94" s="29"/>
+      <c r="K94" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A10:A93"/>
+    <mergeCell ref="C79:C87"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="C59:C71"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D59:D71"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L63:L65"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="B10:B87"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="K63:K65"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="I63:I65"/>
+    <mergeCell ref="J63:J65"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="J45:J46"/>
     <mergeCell ref="L59:L60"/>
@@ -5229,154 +5384,10 @@
     <mergeCell ref="I55:I56"/>
     <mergeCell ref="J55:J56"/>
     <mergeCell ref="H43:H44"/>
-    <mergeCell ref="K63:K65"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="I63:I65"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="C51:C58"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="L63:L65"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="B10:B87"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="L33:L35"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A10:A93"/>
-    <mergeCell ref="C79:C87"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="C59:C71"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="D59:D71"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="F37:F39"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L46" location="_Valores_permitidos_en" display="_Valores_permitidos_en" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L12" location="_Valores_permitidos_en" display="_Valores_permitidos_en" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L46" location="_Valores_permitidos_en" display="_Valores_permitidos_en"/>
+    <hyperlink ref="L12" location="_Valores_permitidos_en" display="_Valores_permitidos_en"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5384,11 +5395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5397,14 +5408,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="263" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="260"/>
+      <c r="B1" s="264"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="261"/>
-      <c r="B2" s="262"/>
+      <c r="A2" s="265"/>
+      <c r="B2" s="266"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -5451,14 +5462,14 @@
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="263" t="s">
+      <c r="A9" s="267" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="264"/>
+      <c r="B9" s="268"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="265"/>
-      <c r="B10" s="266"/>
+      <c r="A10" s="269"/>
+      <c r="B10" s="270"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
@@ -5537,14 +5548,14 @@
       <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="259" t="s">
+      <c r="A21" s="263" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="260"/>
+      <c r="B21" s="264"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="261"/>
-      <c r="B22" s="262"/>
+      <c r="A22" s="265"/>
+      <c r="B22" s="266"/>
     </row>
     <row r="23" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
@@ -5558,7 +5569,7 @@
       <c r="A24" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="27" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5566,20 +5577,23 @@
       <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+    </row>
     <row r="27" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="257" t="s">
+      <c r="A27" s="262" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="257"/>
+      <c r="B27" s="262"/>
     </row>
     <row r="28" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="257"/>
-      <c r="B28" s="257"/>
+      <c r="A28" s="262"/>
+      <c r="B28" s="262"/>
     </row>
     <row r="29" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
@@ -5608,14 +5622,14 @@
     <row r="32" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="257" t="s">
+      <c r="A34" s="262" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="257"/>
+      <c r="B34" s="262"/>
     </row>
     <row r="35" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="257"/>
-      <c r="B35" s="257"/>
+      <c r="A35" s="262"/>
+      <c r="B35" s="262"/>
     </row>
     <row r="36" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
@@ -5643,14 +5657,14 @@
     </row>
     <row r="39" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="257" t="s">
+      <c r="A40" s="262" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="257"/>
+      <c r="B40" s="262"/>
     </row>
     <row r="41" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="257"/>
-      <c r="B41" s="257"/>
+      <c r="A41" s="262"/>
+      <c r="B41" s="262"/>
     </row>
     <row r="42" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
@@ -5661,31 +5675,31 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="26" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="26" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="257" t="s">
+      <c r="A46" s="262" t="s">
         <v>139</v>
       </c>
-      <c r="B46" s="257"/>
+      <c r="B46" s="262"/>
     </row>
     <row r="47" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="257"/>
-      <c r="B47" s="257"/>
+      <c r="A47" s="262"/>
+      <c r="B47" s="262"/>
     </row>
     <row r="48" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
@@ -5696,7 +5710,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="25" t="s">
         <v>184</v>
       </c>
       <c r="B49" s="21" t="s">
@@ -5704,7 +5718,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="25" t="s">
         <v>185</v>
       </c>
       <c r="B50" s="21" t="s">
@@ -5712,15 +5726,15 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="100" t="s">
+      <c r="B51" s="103" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="25" t="s">
         <v>187</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -5728,7 +5742,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="25" t="s">
         <v>189</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -5736,7 +5750,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="25" t="s">
         <v>190</v>
       </c>
       <c r="B54" s="21" t="s">
@@ -5745,10 +5759,10 @@
     </row>
     <row r="55" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="257" t="s">
+      <c r="A56" s="262" t="s">
         <v>159</v>
       </c>
-      <c r="B56" s="257"/>
+      <c r="B56" s="262"/>
     </row>
     <row r="57" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
@@ -5759,47 +5773,47 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="23" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="23" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="23" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="23" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="29" t="s">
         <v>189</v>
       </c>
       <c r="B63" t="s">
@@ -5807,82 +5821,82 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="23" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="23" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="37.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="23" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="27">
+      <c r="A67" s="29">
         <v>10</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="23" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="27">
+      <c r="A68" s="29">
         <v>11</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="23" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="27">
+      <c r="A69" s="29">
         <v>12</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="23" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="27">
+      <c r="A70" s="29">
         <v>13</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="23" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="27">
+      <c r="A71" s="29">
         <v>14</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="23" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="27">
+      <c r="A72" s="29">
         <v>15</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="23" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="27">
+      <c r="A73" s="30">
         <v>16</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="24" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5929,10 +5943,10 @@
     </row>
     <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="257" t="s">
+      <c r="A81" s="262" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="257"/>
+      <c r="B81" s="262"/>
     </row>
     <row r="82" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19" t="s">
@@ -6000,14 +6014,14 @@
     </row>
     <row r="90" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="258" t="s">
+      <c r="A91" s="272" t="s">
         <v>188</v>
       </c>
-      <c r="B91" s="258"/>
+      <c r="B91" s="272"/>
     </row>
     <row r="92" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="258"/>
-      <c r="B92" s="258"/>
+      <c r="A92" s="272"/>
+      <c r="B92" s="272"/>
     </row>
     <row r="93" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="20" t="s">
@@ -6018,34 +6032,34 @@
       </c>
     </row>
     <row r="94" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="24" t="s">
+      <c r="A94" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="26" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="24" t="s">
+      <c r="A95" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B95" s="24" t="s">
+      <c r="B95" s="26" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="93"/>
-      <c r="B96" s="93"/>
+      <c r="A96" s="96"/>
+      <c r="B96" s="96"/>
     </row>
     <row r="97" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="258" t="s">
+      <c r="A97" s="272" t="s">
         <v>216</v>
       </c>
-      <c r="B97" s="258"/>
+      <c r="B97" s="272"/>
     </row>
     <row r="98" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="258"/>
-      <c r="B98" s="258"/>
+      <c r="A98" s="272"/>
+      <c r="B98" s="272"/>
     </row>
     <row r="99" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="s">
@@ -6056,62 +6070,62 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="94" t="s">
+      <c r="A100" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="B100" s="24" t="s">
+      <c r="B100" s="26" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="257" t="s">
+      <c r="A102" s="271" t="s">
         <v>239</v>
       </c>
-      <c r="B102" s="257"/>
+      <c r="B102" s="271"/>
     </row>
     <row r="103" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="101" t="s">
+      <c r="A103" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="B103" s="102" t="s">
+      <c r="B103" s="105" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="23" t="s">
+      <c r="A104" s="106" t="s">
         <v>183</v>
       </c>
-      <c r="B104" s="21" t="s">
+      <c r="B104" s="107" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="23" t="s">
+      <c r="A105" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="B105" s="21" t="s">
+      <c r="B105" s="107" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="23" t="s">
+      <c r="A106" s="106" t="s">
         <v>185</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="B106" s="107" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="258" t="s">
+      <c r="A108" s="272" t="s">
         <v>254</v>
       </c>
-      <c r="B108" s="258"/>
+      <c r="B108" s="272"/>
     </row>
     <row r="109" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="258"/>
-      <c r="B109" s="258"/>
+      <c r="A109" s="272"/>
+      <c r="B109" s="272"/>
     </row>
     <row r="110" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
@@ -6122,47 +6136,47 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="106" t="s">
         <v>183</v>
       </c>
-      <c r="B111" s="21" t="s">
+      <c r="B111" s="107" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="23" t="s">
+      <c r="A112" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="B112" s="21" t="s">
+      <c r="B112" s="107" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="23" t="s">
+      <c r="A113" s="106" t="s">
         <v>185</v>
       </c>
-      <c r="B113" s="21" t="s">
+      <c r="B113" s="107" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="23" t="s">
+      <c r="A114" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="B114" s="21" t="s">
+      <c r="B114" s="107" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="257" t="s">
+      <c r="A116" s="271" t="s">
         <v>259</v>
       </c>
-      <c r="B116" s="257"/>
+      <c r="B116" s="271"/>
     </row>
     <row r="117" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="257"/>
-      <c r="B117" s="257"/>
+      <c r="A117" s="271"/>
+      <c r="B117" s="271"/>
     </row>
     <row r="118" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
@@ -6173,16 +6187,21 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="21" t="s">
+      <c r="A119" s="107" t="s">
         <v>284</v>
       </c>
-      <c r="B119" s="21" t="s">
+      <c r="B119" s="107" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A116:B117"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A108:B109"/>
+    <mergeCell ref="A97:B98"/>
+    <mergeCell ref="A91:B92"/>
     <mergeCell ref="A46:B47"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A81:B81"/>
@@ -6192,11 +6211,6 @@
     <mergeCell ref="A9:B10"/>
     <mergeCell ref="A27:B28"/>
     <mergeCell ref="A34:B35"/>
-    <mergeCell ref="A116:B117"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A108:B109"/>
-    <mergeCell ref="A97:B98"/>
-    <mergeCell ref="A91:B92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
